--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="131">
   <si>
     <t>Time Id</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Session Duration</t>
+  </si>
+  <si>
+    <t>CSC401</t>
+  </si>
+  <si>
+    <t>Engineering Mathematics IV</t>
   </si>
   <si>
     <t>CSC402</t>
@@ -1294,10 +1300,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="1">
         <v>1.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1364,10 +1370,10 @@
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -1434,10 +1440,10 @@
         <v>42</v>
       </c>
       <c r="C16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D16" s="1">
         <v>1.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -1490,7 +1496,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="1">
         <v>2.0</v>
@@ -1504,10 +1510,10 @@
         <v>52</v>
       </c>
       <c r="C21" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -1560,10 +1566,10 @@
         <v>60</v>
       </c>
       <c r="C25" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D25" s="1">
         <v>1.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -1591,6 +1597,20 @@
         <v>1.0</v>
       </c>
       <c r="D27" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="1">
         <v>2.0</v>
       </c>
     </row>
@@ -1611,13 +1631,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
@@ -1628,7 +1648,7 @@
         <v>2.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1639,7 +1659,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1650,7 +1670,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -1661,7 +1681,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +1692,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1683,7 +1703,7 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1703,7 +1723,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1783,10 +1803,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1794,7 +1814,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1802,7 +1822,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1810,7 +1830,7 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1818,7 +1838,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1826,7 +1846,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1834,7 +1854,7 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1842,7 +1862,7 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1850,23 +1870,23 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -1874,7 +1894,7 @@
         <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -1882,7 +1902,7 @@
         <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1890,7 +1910,7 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -1898,7 +1918,7 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -1906,7 +1926,7 @@
         <v>3.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
@@ -1914,7 +1934,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1922,7 +1942,7 @@
         <v>3.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1930,23 +1950,23 @@
         <v>3.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
@@ -1954,7 +1974,7 @@
         <v>4.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -1962,7 +1982,7 @@
         <v>4.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
@@ -1970,7 +1990,7 @@
         <v>4.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -1978,7 +1998,7 @@
         <v>4.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -1986,7 +2006,7 @@
         <v>4.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -1994,7 +2014,7 @@
         <v>4.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38">
@@ -2002,7 +2022,7 @@
         <v>4.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -2010,23 +2030,23 @@
         <v>4.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -2034,7 +2054,7 @@
         <v>5.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -2042,7 +2062,7 @@
         <v>5.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
@@ -2050,7 +2070,7 @@
         <v>5.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45">
@@ -2058,7 +2078,7 @@
         <v>5.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -2066,23 +2086,23 @@
         <v>5.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49">
@@ -2090,7 +2110,7 @@
         <v>6.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -2098,7 +2118,7 @@
         <v>6.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -2106,7 +2126,7 @@
         <v>6.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52">
@@ -2114,7 +2134,7 @@
         <v>6.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53">
@@ -2122,7 +2142,23 @@
         <v>6.0</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2142,13 +2178,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -2156,10 +2192,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -2167,10 +2203,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2178,10 +2214,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -2189,10 +2225,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2200,10 +2236,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2211,10 +2247,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2222,10 +2258,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -2233,10 +2269,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -2244,10 +2280,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -2255,10 +2291,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -2266,10 +2302,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -2277,10 +2313,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -2288,10 +2324,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -2299,10 +2335,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16">
@@ -2310,10 +2346,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -2321,10 +2357,10 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -2332,10 +2368,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -2343,10 +2379,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -2354,10 +2390,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2368,22 +2404,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryRight="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" outlineLevel="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -2394,7 +2430,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="3">
@@ -2405,7 +2441,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2416,7 +2452,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2427,7 +2463,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -2438,7 +2474,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -2449,7 +2485,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -2460,7 +2496,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -2471,7 +2507,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -2482,7 +2518,7 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -2493,7 +2529,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="12">
@@ -2504,7 +2540,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13">
@@ -2515,7 +2551,7 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="14">
@@ -2526,7 +2562,7 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="15">
@@ -2537,7 +2573,7 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
@@ -2548,7 +2584,7 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="17">
@@ -2559,7 +2595,7 @@
         <v>1.0</v>
       </c>
       <c r="C17" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="18">
@@ -2570,7 +2606,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
@@ -2581,7 +2617,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="20">
@@ -2592,7 +2628,7 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="21">
@@ -2603,7 +2639,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="22">
@@ -2614,7 +2650,7 @@
         <v>1.0</v>
       </c>
       <c r="C22" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="23">
@@ -2625,7 +2661,7 @@
         <v>1.0</v>
       </c>
       <c r="C23" s="1">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="24">
@@ -2636,7 +2672,7 @@
         <v>1.0</v>
       </c>
       <c r="C24" s="1">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="25">
@@ -2647,7 +2683,7 @@
         <v>1.0</v>
       </c>
       <c r="C25" s="1">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="26">
@@ -2658,7 +2694,7 @@
         <v>1.0</v>
       </c>
       <c r="C26" s="1">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27">
@@ -2669,4701 +2705,4701 @@
         <v>1.0</v>
       </c>
       <c r="C27" s="1">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C28" s="1">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>2.0</v>
       </c>
       <c r="C29" s="1">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
         <v>2.0</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>2.0</v>
       </c>
       <c r="C31" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1">
         <v>2.0</v>
       </c>
       <c r="C32" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="1">
         <v>2.0</v>
       </c>
       <c r="C33" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
       </c>
       <c r="C34" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
       </c>
       <c r="C35" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1">
         <v>2.0</v>
       </c>
       <c r="C36" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37" s="1">
         <v>2.0</v>
       </c>
       <c r="C37" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <v>2.0</v>
       </c>
       <c r="C38" s="1">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>2.0</v>
       </c>
       <c r="C39" s="1">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1">
         <v>2.0</v>
       </c>
       <c r="C40" s="1">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
         <v>2.0</v>
       </c>
       <c r="C41" s="1">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
         <v>2.0</v>
       </c>
       <c r="C42" s="1">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>2.0</v>
       </c>
       <c r="C43" s="1">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
       </c>
       <c r="C44" s="1">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>2.0</v>
       </c>
       <c r="C45" s="1">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1">
         <v>2.0</v>
       </c>
       <c r="C46" s="1">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1">
         <v>2.0</v>
       </c>
       <c r="C47" s="1">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>2.0</v>
       </c>
       <c r="C48" s="1">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>2.0</v>
       </c>
       <c r="C49" s="1">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1">
         <v>2.0</v>
       </c>
       <c r="C50" s="1">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1">
         <v>2.0</v>
       </c>
       <c r="C51" s="1">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1">
         <v>2.0</v>
       </c>
       <c r="C52" s="1">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1">
         <v>2.0</v>
       </c>
       <c r="C53" s="1">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C54" s="1">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="B55" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C55" s="1">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B56" s="1">
         <v>3.0</v>
       </c>
       <c r="C56" s="1">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B57" s="1">
         <v>3.0</v>
       </c>
       <c r="C57" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1">
         <v>3.0</v>
       </c>
       <c r="C58" s="1">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B59" s="1">
         <v>3.0</v>
       </c>
       <c r="C59" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="1">
         <v>3.0</v>
       </c>
       <c r="C60" s="1">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1">
         <v>3.0</v>
       </c>
       <c r="C61" s="1">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B62" s="1">
         <v>3.0</v>
       </c>
       <c r="C62" s="1">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B63" s="1">
         <v>3.0</v>
       </c>
       <c r="C63" s="1">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1">
         <v>3.0</v>
       </c>
       <c r="C64" s="1">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1">
         <v>3.0</v>
       </c>
       <c r="C65" s="1">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B66" s="1">
         <v>3.0</v>
       </c>
       <c r="C66" s="1">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B67" s="1">
         <v>3.0</v>
       </c>
       <c r="C67" s="1">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B68" s="1">
         <v>3.0</v>
       </c>
       <c r="C68" s="1">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B69" s="1">
         <v>3.0</v>
       </c>
       <c r="C69" s="1">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1">
         <v>3.0</v>
       </c>
       <c r="C70" s="1">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1">
         <v>3.0</v>
       </c>
       <c r="C71" s="1">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B72" s="1">
         <v>3.0</v>
       </c>
       <c r="C72" s="1">
-        <v>19.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1">
         <v>3.0</v>
       </c>
       <c r="C73" s="1">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B74" s="1">
         <v>3.0</v>
       </c>
       <c r="C74" s="1">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B75" s="1">
         <v>3.0</v>
       </c>
       <c r="C75" s="1">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B76" s="1">
         <v>3.0</v>
       </c>
       <c r="C76" s="1">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B77" s="1">
         <v>3.0</v>
       </c>
       <c r="C77" s="1">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B78" s="1">
         <v>3.0</v>
       </c>
       <c r="C78" s="1">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B79" s="1">
         <v>3.0</v>
       </c>
       <c r="C79" s="1">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B80" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C80" s="1">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B81" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C81" s="1">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B82" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C82" s="1">
-        <v>5.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B83" s="1">
         <v>4.0</v>
       </c>
       <c r="C83" s="1">
-        <v>6.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1">
         <v>4.0</v>
       </c>
       <c r="C84" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1">
         <v>4.0</v>
       </c>
       <c r="C85" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B86" s="1">
         <v>4.0</v>
       </c>
       <c r="C86" s="1">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1">
         <v>4.0</v>
       </c>
       <c r="C87" s="1">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B88" s="1">
         <v>4.0</v>
       </c>
       <c r="C88" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B89" s="1">
         <v>4.0</v>
       </c>
       <c r="C89" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1">
         <v>4.0</v>
       </c>
       <c r="C90" s="1">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B91" s="1">
         <v>4.0</v>
       </c>
       <c r="C91" s="1">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B92" s="1">
         <v>4.0</v>
       </c>
       <c r="C92" s="1">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B93" s="1">
         <v>4.0</v>
       </c>
       <c r="C93" s="1">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B94" s="1">
         <v>4.0</v>
       </c>
       <c r="C94" s="1">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B95" s="1">
         <v>4.0</v>
       </c>
       <c r="C95" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B96" s="1">
         <v>4.0</v>
       </c>
       <c r="C96" s="1">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B97" s="1">
         <v>4.0</v>
       </c>
       <c r="C97" s="1">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B98" s="1">
         <v>4.0</v>
       </c>
       <c r="C98" s="1">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B99" s="1">
         <v>4.0</v>
       </c>
       <c r="C99" s="1">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1">
         <v>4.0</v>
       </c>
       <c r="C100" s="1">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B101" s="1">
         <v>4.0</v>
       </c>
       <c r="C101" s="1">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B102" s="1">
         <v>4.0</v>
       </c>
       <c r="C102" s="1">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B103" s="1">
         <v>4.0</v>
       </c>
       <c r="C103" s="1">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1">
         <v>4.0</v>
       </c>
       <c r="C104" s="1">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B105" s="1">
         <v>4.0</v>
       </c>
       <c r="C105" s="1">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B106" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C106" s="1">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B107" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C107" s="1">
-        <v>4.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B108" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C108" s="1">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C109" s="1">
-        <v>6.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B110" s="1">
         <v>5.0</v>
       </c>
       <c r="C110" s="1">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B111" s="1">
         <v>5.0</v>
       </c>
       <c r="C111" s="1">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B112" s="1">
         <v>5.0</v>
       </c>
       <c r="C112" s="1">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B113" s="1">
         <v>5.0</v>
       </c>
       <c r="C113" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1">
         <v>5.0</v>
       </c>
       <c r="C114" s="1">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B115" s="1">
         <v>5.0</v>
       </c>
       <c r="C115" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B116" s="1">
         <v>5.0</v>
       </c>
       <c r="C116" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B117" s="1">
         <v>5.0</v>
       </c>
       <c r="C117" s="1">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B118" s="1">
         <v>5.0</v>
       </c>
       <c r="C118" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B119" s="1">
         <v>5.0</v>
       </c>
       <c r="C119" s="1">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B120" s="1">
         <v>5.0</v>
       </c>
       <c r="C120" s="1">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B121" s="1">
         <v>5.0</v>
       </c>
       <c r="C121" s="1">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B122" s="1">
         <v>5.0</v>
       </c>
       <c r="C122" s="1">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B123" s="1">
         <v>5.0</v>
       </c>
       <c r="C123" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B124" s="1">
         <v>5.0</v>
       </c>
       <c r="C124" s="1">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B125" s="1">
         <v>5.0</v>
       </c>
       <c r="C125" s="1">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B126" s="1">
         <v>5.0</v>
       </c>
       <c r="C126" s="1">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B127" s="1">
         <v>5.0</v>
       </c>
       <c r="C127" s="1">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B128" s="1">
         <v>5.0</v>
       </c>
       <c r="C128" s="1">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B129" s="1">
         <v>5.0</v>
       </c>
       <c r="C129" s="1">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B130" s="1">
         <v>5.0</v>
       </c>
       <c r="C130" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B131" s="1">
         <v>5.0</v>
       </c>
       <c r="C131" s="1">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B132" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C132" s="1">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B133" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C133" s="1">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B134" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C134" s="1">
-        <v>5.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B135" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C135" s="1">
-        <v>6.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B136" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C136" s="1">
-        <v>7.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B137" s="1">
         <v>6.0</v>
       </c>
       <c r="C137" s="1">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B138" s="1">
         <v>6.0</v>
       </c>
       <c r="C138" s="1">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B139" s="1">
         <v>6.0</v>
       </c>
       <c r="C139" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B140" s="1">
         <v>6.0</v>
       </c>
       <c r="C140" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B141" s="1">
         <v>6.0</v>
       </c>
       <c r="C141" s="1">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B142" s="1">
         <v>6.0</v>
       </c>
       <c r="C142" s="1">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B143" s="1">
         <v>6.0</v>
       </c>
       <c r="C143" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B144" s="1">
         <v>6.0</v>
       </c>
       <c r="C144" s="1">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B145" s="1">
         <v>6.0</v>
       </c>
       <c r="C145" s="1">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B146" s="1">
         <v>6.0</v>
       </c>
       <c r="C146" s="1">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B147" s="1">
         <v>6.0</v>
       </c>
       <c r="C147" s="1">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B148" s="1">
         <v>6.0</v>
       </c>
       <c r="C148" s="1">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B149" s="1">
         <v>6.0</v>
       </c>
       <c r="C149" s="1">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B150" s="1">
         <v>6.0</v>
       </c>
       <c r="C150" s="1">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B151" s="1">
         <v>6.0</v>
       </c>
       <c r="C151" s="1">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B152" s="1">
         <v>6.0</v>
       </c>
       <c r="C152" s="1">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B153" s="1">
         <v>6.0</v>
       </c>
       <c r="C153" s="1">
-        <v>22.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B154" s="1">
         <v>6.0</v>
       </c>
       <c r="C154" s="1">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B155" s="1">
         <v>6.0</v>
       </c>
       <c r="C155" s="1">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B156" s="1">
         <v>6.0</v>
       </c>
       <c r="C156" s="1">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B157" s="1">
         <v>6.0</v>
       </c>
       <c r="C157" s="1">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B158" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C158" s="1">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B159" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C159" s="1">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B160" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C160" s="1">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="B161" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C161" s="1">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B162" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C162" s="1">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B163" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C163" s="1">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B164" s="1">
         <v>7.0</v>
       </c>
       <c r="C164" s="1">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B165" s="1">
         <v>7.0</v>
       </c>
       <c r="C165" s="1">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B166" s="1">
         <v>7.0</v>
       </c>
       <c r="C166" s="1">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B167" s="1">
         <v>7.0</v>
       </c>
       <c r="C167" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B168" s="1">
         <v>7.0</v>
       </c>
       <c r="C168" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B169" s="1">
         <v>7.0</v>
       </c>
       <c r="C169" s="1">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B170" s="1">
         <v>7.0</v>
       </c>
       <c r="C170" s="1">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B171" s="1">
         <v>7.0</v>
       </c>
       <c r="C171" s="1">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B172" s="1">
         <v>7.0</v>
       </c>
       <c r="C172" s="1">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B173" s="1">
         <v>7.0</v>
       </c>
       <c r="C173" s="1">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B174" s="1">
         <v>7.0</v>
       </c>
       <c r="C174" s="1">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B175" s="1">
         <v>7.0</v>
       </c>
       <c r="C175" s="1">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B176" s="1">
         <v>7.0</v>
       </c>
       <c r="C176" s="1">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B177" s="1">
         <v>7.0</v>
       </c>
       <c r="C177" s="1">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B178" s="1">
         <v>7.0</v>
       </c>
       <c r="C178" s="1">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B179" s="1">
         <v>7.0</v>
       </c>
       <c r="C179" s="1">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B180" s="1">
         <v>7.0</v>
       </c>
       <c r="C180" s="1">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B181" s="1">
         <v>7.0</v>
       </c>
       <c r="C181" s="1">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B182" s="1">
         <v>7.0</v>
       </c>
       <c r="C182" s="1">
-        <v>25.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B183" s="1">
         <v>7.0</v>
       </c>
       <c r="C183" s="1">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B184" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C184" s="1">
-        <v>3.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="B185" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C185" s="1">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B186" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C186" s="1">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B187" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C187" s="1">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B188" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C188" s="1">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B189" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C189" s="1">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B190" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C190" s="1">
-        <v>9.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B191" s="1">
         <v>8.0</v>
       </c>
       <c r="C191" s="1">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B192" s="1">
         <v>8.0</v>
       </c>
       <c r="C192" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B193" s="1">
         <v>8.0</v>
       </c>
       <c r="C193" s="1">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B194" s="1">
         <v>8.0</v>
       </c>
       <c r="C194" s="1">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B195" s="1">
         <v>8.0</v>
       </c>
       <c r="C195" s="1">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B196" s="1">
         <v>8.0</v>
       </c>
       <c r="C196" s="1">
-        <v>14.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B197" s="1">
         <v>8.0</v>
       </c>
       <c r="C197" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B198" s="1">
         <v>8.0</v>
       </c>
       <c r="C198" s="1">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B199" s="1">
         <v>8.0</v>
       </c>
       <c r="C199" s="1">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B200" s="1">
         <v>8.0</v>
       </c>
       <c r="C200" s="1">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B201" s="1">
         <v>8.0</v>
       </c>
       <c r="C201" s="1">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B202" s="1">
         <v>8.0</v>
       </c>
       <c r="C202" s="1">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B203" s="1">
         <v>8.0</v>
       </c>
       <c r="C203" s="1">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B204" s="1">
         <v>8.0</v>
       </c>
       <c r="C204" s="1">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B205" s="1">
         <v>8.0</v>
       </c>
       <c r="C205" s="1">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B206" s="1">
         <v>8.0</v>
       </c>
       <c r="C206" s="1">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B207" s="1">
         <v>8.0</v>
       </c>
       <c r="C207" s="1">
-        <v>24.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B208" s="1">
         <v>8.0</v>
       </c>
       <c r="C208" s="1">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B209" s="1">
         <v>8.0</v>
       </c>
       <c r="C209" s="1">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B210" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C210" s="1">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B211" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C211" s="1">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B212" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C212" s="1">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B213" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C213" s="1">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B214" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C214" s="1">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B215" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C215" s="1">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B216" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C216" s="1">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B217" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C217" s="1">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B218" s="1">
         <v>9.0</v>
       </c>
       <c r="C218" s="1">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B219" s="1">
         <v>9.0</v>
       </c>
       <c r="C219" s="1">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B220" s="1">
         <v>9.0</v>
       </c>
       <c r="C220" s="1">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1">
         <v>9.0</v>
       </c>
       <c r="C221" s="1">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B222" s="1">
         <v>9.0</v>
       </c>
       <c r="C222" s="1">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B223" s="1">
         <v>9.0</v>
       </c>
       <c r="C223" s="1">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B224" s="1">
         <v>9.0</v>
       </c>
       <c r="C224" s="1">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B225" s="1">
         <v>9.0</v>
       </c>
       <c r="C225" s="1">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B226" s="1">
         <v>9.0</v>
       </c>
       <c r="C226" s="1">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B227" s="1">
         <v>9.0</v>
       </c>
       <c r="C227" s="1">
-        <v>25.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B228" s="1">
         <v>9.0</v>
       </c>
       <c r="C228" s="1">
-        <v>26.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B229" s="1">
         <v>9.0</v>
       </c>
       <c r="C229" s="1">
-        <v>1.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B230" s="1">
         <v>9.0</v>
       </c>
       <c r="C230" s="1">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B231" s="1">
         <v>9.0</v>
       </c>
       <c r="C231" s="1">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B232" s="1">
         <v>9.0</v>
       </c>
       <c r="C232" s="1">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B233" s="1">
         <v>9.0</v>
       </c>
       <c r="C233" s="1">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B234" s="1">
         <v>9.0</v>
       </c>
       <c r="C234" s="1">
-        <v>4.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B235" s="1">
         <v>9.0</v>
       </c>
       <c r="C235" s="1">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B236" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C236" s="1">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B237" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C237" s="1">
-        <v>3.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B238" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C238" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B239" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C239" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B240" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C240" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B241" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C241" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B242" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C242" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B243" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C243" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B244" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C244" s="1">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B245" s="1">
         <v>10.0</v>
       </c>
       <c r="C245" s="1">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B246" s="1">
         <v>10.0</v>
       </c>
       <c r="C246" s="1">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B247" s="1">
         <v>10.0</v>
       </c>
       <c r="C247" s="1">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B248" s="1">
         <v>10.0</v>
       </c>
       <c r="C248" s="1">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B249" s="1">
         <v>10.0</v>
       </c>
       <c r="C249" s="1">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B250" s="1">
         <v>10.0</v>
       </c>
       <c r="C250" s="1">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B251" s="1">
         <v>10.0</v>
       </c>
       <c r="C251" s="1">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B252" s="1">
         <v>10.0</v>
       </c>
       <c r="C252" s="1">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B253" s="1">
         <v>10.0</v>
       </c>
       <c r="C253" s="1">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B254" s="1">
         <v>10.0</v>
       </c>
       <c r="C254" s="1">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B255" s="1">
         <v>10.0</v>
       </c>
       <c r="C255" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B256" s="1">
         <v>10.0</v>
       </c>
       <c r="C256" s="1">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B257" s="1">
         <v>10.0</v>
       </c>
       <c r="C257" s="1">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B258" s="1">
         <v>10.0</v>
       </c>
       <c r="C258" s="1">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B259" s="1">
         <v>10.0</v>
       </c>
       <c r="C259" s="1">
-        <v>24.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B260" s="1">
         <v>10.0</v>
       </c>
       <c r="C260" s="1">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B261" s="1">
         <v>10.0</v>
       </c>
       <c r="C261" s="1">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B262" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C262" s="1">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B263" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C263" s="1">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B264" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C264" s="1">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B265" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C265" s="1">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B266" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C266" s="1">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B267" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C267" s="1">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B268" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C268" s="1">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B269" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C269" s="1">
-        <v>10.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B270" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C270" s="1">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B271" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C271" s="1">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B272" s="1">
         <v>11.0</v>
       </c>
       <c r="C272" s="1">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B273" s="1">
         <v>11.0</v>
       </c>
       <c r="C273" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B274" s="1">
         <v>11.0</v>
       </c>
       <c r="C274" s="1">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B275" s="1">
         <v>11.0</v>
       </c>
       <c r="C275" s="1">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B276" s="1">
         <v>11.0</v>
       </c>
       <c r="C276" s="1">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="B277" s="1">
         <v>11.0</v>
       </c>
       <c r="C277" s="1">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B278" s="1">
         <v>11.0</v>
       </c>
       <c r="C278" s="1">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B279" s="1">
         <v>11.0</v>
       </c>
       <c r="C279" s="1">
-        <v>18.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B280" s="1">
         <v>11.0</v>
       </c>
       <c r="C280" s="1">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B281" s="1">
         <v>11.0</v>
       </c>
       <c r="C281" s="1">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B282" s="1">
         <v>11.0</v>
       </c>
       <c r="C282" s="1">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B283" s="1">
         <v>11.0</v>
       </c>
       <c r="C283" s="1">
-        <v>22.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B284" s="1">
         <v>11.0</v>
       </c>
       <c r="C284" s="1">
-        <v>23.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B285" s="1">
         <v>11.0</v>
       </c>
       <c r="C285" s="1">
-        <v>24.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B286" s="1">
         <v>11.0</v>
       </c>
       <c r="C286" s="1">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B287" s="1">
         <v>11.0</v>
       </c>
       <c r="C287" s="1">
-        <v>26.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B288" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C288" s="1">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B289" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C289" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B290" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C290" s="1">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B291" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C291" s="1">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B292" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C292" s="1">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B293" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C293" s="1">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B294" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C294" s="1">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B295" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C295" s="1">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B296" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C296" s="1">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B297" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C297" s="1">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B298" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="C298" s="1">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B299" s="1">
         <v>12.0</v>
       </c>
       <c r="C299" s="1">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B300" s="1">
         <v>12.0</v>
       </c>
       <c r="C300" s="1">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B301" s="1">
         <v>12.0</v>
       </c>
       <c r="C301" s="1">
-        <v>21.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B302" s="1">
         <v>12.0</v>
       </c>
       <c r="C302" s="1">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B303" s="1">
         <v>12.0</v>
       </c>
       <c r="C303" s="1">
-        <v>23.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B304" s="1">
         <v>12.0</v>
       </c>
       <c r="C304" s="1">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B305" s="1">
         <v>12.0</v>
       </c>
       <c r="C305" s="1">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B306" s="1">
         <v>12.0</v>
       </c>
       <c r="C306" s="1">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B307" s="1">
         <v>12.0</v>
       </c>
       <c r="C307" s="1">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B308" s="1">
         <v>12.0</v>
       </c>
       <c r="C308" s="1">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B309" s="1">
         <v>12.0</v>
       </c>
       <c r="C309" s="1">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B310" s="1">
         <v>12.0</v>
       </c>
       <c r="C310" s="1">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B311" s="1">
         <v>12.0</v>
       </c>
       <c r="C311" s="1">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B312" s="1">
         <v>12.0</v>
       </c>
       <c r="C312" s="1">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B313" s="1">
         <v>12.0</v>
       </c>
       <c r="C313" s="1">
-        <v>4.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B314" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C314" s="1">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B315" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C315" s="1">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B316" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C316" s="1">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B317" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C317" s="1">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B318" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C318" s="1">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B319" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C319" s="1">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B320" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C320" s="1">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B321" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C321" s="1">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B322" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C322" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B323" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C323" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B324" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C324" s="1">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B325" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C325" s="1">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B326" s="1">
         <v>13.0</v>
       </c>
       <c r="C326" s="1">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B327" s="1">
         <v>13.0</v>
       </c>
       <c r="C327" s="1">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B328" s="1">
         <v>13.0</v>
       </c>
       <c r="C328" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B329" s="1">
         <v>13.0</v>
       </c>
       <c r="C329" s="1">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B330" s="1">
         <v>13.0</v>
       </c>
       <c r="C330" s="1">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B331" s="1">
         <v>13.0</v>
       </c>
       <c r="C331" s="1">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B332" s="1">
         <v>13.0</v>
       </c>
       <c r="C332" s="1">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B333" s="1">
         <v>13.0</v>
       </c>
       <c r="C333" s="1">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B334" s="1">
         <v>13.0</v>
       </c>
       <c r="C334" s="1">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B335" s="1">
         <v>13.0</v>
       </c>
       <c r="C335" s="1">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B336" s="1">
         <v>13.0</v>
       </c>
       <c r="C336" s="1">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B337" s="1">
         <v>13.0</v>
       </c>
       <c r="C337" s="1">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B338" s="1">
         <v>13.0</v>
       </c>
       <c r="C338" s="1">
-        <v>25.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B339" s="1">
         <v>13.0</v>
       </c>
       <c r="C339" s="1">
-        <v>26.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B340" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C340" s="1">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B341" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C341" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B342" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C342" s="1">
-        <v>4.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B343" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C343" s="1">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B344" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C344" s="1">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B345" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C345" s="1">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B346" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C346" s="1">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B347" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C347" s="1">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B348" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C348" s="1">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B349" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C349" s="1">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B350" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C350" s="1">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B351" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C351" s="1">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B352" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C352" s="1">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B353" s="1">
         <v>14.0</v>
       </c>
       <c r="C353" s="1">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B354" s="1">
         <v>14.0</v>
       </c>
       <c r="C354" s="1">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B355" s="1">
         <v>14.0</v>
       </c>
       <c r="C355" s="1">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B356" s="1">
         <v>14.0</v>
       </c>
       <c r="C356" s="1">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B357" s="1">
         <v>14.0</v>
       </c>
       <c r="C357" s="1">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B358" s="1">
         <v>14.0</v>
       </c>
       <c r="C358" s="1">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B359" s="1">
         <v>14.0</v>
       </c>
       <c r="C359" s="1">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B360" s="1">
         <v>14.0</v>
       </c>
       <c r="C360" s="1">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B361" s="1">
         <v>14.0</v>
       </c>
       <c r="C361" s="1">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B362" s="1">
         <v>14.0</v>
       </c>
       <c r="C362" s="1">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B363" s="1">
         <v>14.0</v>
       </c>
       <c r="C363" s="1">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B364" s="1">
         <v>14.0</v>
       </c>
       <c r="C364" s="1">
-        <v>25.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B365" s="1">
         <v>14.0</v>
       </c>
       <c r="C365" s="1">
-        <v>26.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B366" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C366" s="1">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B367" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C367" s="1">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B368" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C368" s="1">
         <v>15.0</v>
-      </c>
-      <c r="C368" s="1">
-        <v>1.0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B369" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C369" s="1">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B370" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C370" s="1">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B371" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C371" s="1">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B372" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C372" s="1">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B373" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C373" s="1">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B374" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C374" s="1">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B375" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C375" s="1">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B376" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C376" s="1">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B377" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C377" s="1">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B378" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C378" s="1">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B379" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="C379" s="1">
-        <v>14.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B380" s="1">
         <v>15.0</v>
       </c>
       <c r="C380" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B381" s="1">
         <v>15.0</v>
       </c>
       <c r="C381" s="1">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B382" s="1">
         <v>15.0</v>
       </c>
       <c r="C382" s="1">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B383" s="1">
         <v>15.0</v>
       </c>
       <c r="C383" s="1">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="B384" s="1">
         <v>15.0</v>
       </c>
       <c r="C384" s="1">
-        <v>19.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B385" s="1">
         <v>15.0</v>
       </c>
       <c r="C385" s="1">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B386" s="1">
         <v>15.0</v>
       </c>
       <c r="C386" s="1">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B387" s="1">
         <v>15.0</v>
       </c>
       <c r="C387" s="1">
-        <v>22.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B388" s="1">
         <v>15.0</v>
       </c>
       <c r="C388" s="1">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B389" s="1">
         <v>15.0</v>
       </c>
       <c r="C389" s="1">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B390" s="1">
         <v>15.0</v>
       </c>
       <c r="C390" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B391" s="1">
         <v>15.0</v>
       </c>
       <c r="C391" s="1">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B392" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C392" s="1">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B393" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C393" s="1">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B394" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C394" s="1">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B395" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C395" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B396" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C396" s="1">
         <v>16.0</v>
-      </c>
-      <c r="C396" s="1">
-        <v>7.0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B397" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C397" s="1">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B398" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C398" s="1">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B399" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C399" s="1">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B400" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C400" s="1">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B401" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C401" s="1">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B402" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C402" s="1">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B403" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C403" s="1">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B404" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C404" s="1">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B405" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C405" s="1">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B406" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="C406" s="1">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B407" s="1">
         <v>16.0</v>
       </c>
       <c r="C407" s="1">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B408" s="1">
         <v>16.0</v>
       </c>
       <c r="C408" s="1">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B409" s="1">
         <v>16.0</v>
       </c>
       <c r="C409" s="1">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B410" s="1">
         <v>16.0</v>
       </c>
       <c r="C410" s="1">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B411" s="1">
         <v>16.0</v>
       </c>
       <c r="C411" s="1">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B412" s="1">
         <v>16.0</v>
       </c>
       <c r="C412" s="1">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B413" s="1">
         <v>16.0</v>
       </c>
       <c r="C413" s="1">
-        <v>22.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B414" s="1">
         <v>16.0</v>
       </c>
       <c r="C414" s="1">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B415" s="1">
         <v>16.0</v>
       </c>
       <c r="C415" s="1">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B416" s="1">
         <v>16.0</v>
       </c>
       <c r="C416" s="1">
-        <v>25.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B417" s="1">
         <v>16.0</v>
       </c>
       <c r="C417" s="1">
-        <v>26.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B418" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C418" s="1">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B419" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C419" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B420" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C420" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B421" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C421" s="1">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B422" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C422" s="1">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B423" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C423" s="1">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B424" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="C424" s="1">
         <v>17.0</v>
-      </c>
-      <c r="C424" s="1">
-        <v>14.0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B425" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C425" s="1">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B426" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C426" s="1">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B427" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C427" s="1">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B428" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C428" s="1">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B429" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C429" s="1">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B430" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C430" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B431" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C431" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B432" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C432" s="1">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B433" s="1">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="C433" s="1">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B434" s="1">
         <v>17.0</v>
       </c>
       <c r="C434" s="1">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B435" s="1">
         <v>17.0</v>
       </c>
       <c r="C435" s="1">
-        <v>25.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B436" s="1">
         <v>17.0</v>
       </c>
       <c r="C436" s="1">
-        <v>26.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B437" s="1">
         <v>17.0</v>
       </c>
       <c r="C437" s="1">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B438" s="1">
         <v>17.0</v>
       </c>
       <c r="C438" s="1">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B439" s="1">
         <v>17.0</v>
       </c>
       <c r="C439" s="1">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B440" s="1">
         <v>17.0</v>
       </c>
       <c r="C440" s="1">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B441" s="1">
         <v>17.0</v>
       </c>
       <c r="C441" s="1">
-        <v>2.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B442" s="1">
         <v>17.0</v>
       </c>
       <c r="C442" s="1">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B443" s="1">
         <v>17.0</v>
       </c>
       <c r="C443" s="1">
-        <v>6.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B444" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C444" s="1">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B445" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="C445" s="1">
         <v>18.0</v>
-      </c>
-      <c r="C445" s="1">
-        <v>5.0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B446" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C446" s="1">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B447" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C447" s="1">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B448" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C448" s="1">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B449" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C449" s="1">
-        <v>9.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B450" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C450" s="1">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B451" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C451" s="1">
-        <v>11.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B452" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C452" s="1">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B453" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C453" s="1">
-        <v>13.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B454" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C454" s="1">
         <v>1.0</v>
@@ -7371,452 +7407,661 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B455" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C455" s="1">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B456" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C456" s="1">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B457" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C457" s="1">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B458" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C458" s="1">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B459" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C459" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B460" s="1">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="C460" s="1">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B461" s="1">
         <v>18.0</v>
       </c>
       <c r="C461" s="1">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B462" s="1">
         <v>18.0</v>
       </c>
       <c r="C462" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B463" s="1">
         <v>18.0</v>
       </c>
       <c r="C463" s="1">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B464" s="1">
         <v>18.0</v>
       </c>
       <c r="C464" s="1">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B465" s="1">
         <v>18.0</v>
       </c>
       <c r="C465" s="1">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B466" s="1">
         <v>18.0</v>
       </c>
       <c r="C466" s="1">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B467" s="1">
         <v>18.0</v>
       </c>
       <c r="C467" s="1">
-        <v>24.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B468" s="1">
         <v>18.0</v>
       </c>
       <c r="C468" s="1">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="B469" s="1">
         <v>18.0</v>
       </c>
       <c r="C469" s="1">
-        <v>26.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B470" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C470" s="1">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B471" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C471" s="1">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B472" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C472" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B473" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C473" s="1">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B474" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C474" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B475" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C475" s="1">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B476" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C476" s="1">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B477" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C477" s="1">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B478" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C478" s="1">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B479" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="C479" s="1">
         <v>19.0</v>
-      </c>
-      <c r="C479" s="1">
-        <v>13.0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B480" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C480" s="1">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B481" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C481" s="1">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B482" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C482" s="1">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B483" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C483" s="1">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B484" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C484" s="1">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B485" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C485" s="1">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B486" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C486" s="1">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B487" s="1">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="C487" s="1">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B488" s="1">
         <v>19.0</v>
       </c>
       <c r="C488" s="1">
-        <v>21.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B489" s="1">
         <v>19.0</v>
       </c>
       <c r="C489" s="1">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B490" s="1">
         <v>19.0</v>
       </c>
       <c r="C490" s="1">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B491" s="1">
         <v>19.0</v>
       </c>
       <c r="C491" s="1">
-        <v>24.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B492" s="1">
         <v>19.0</v>
       </c>
       <c r="C492" s="1">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B493" s="1">
         <v>19.0</v>
       </c>
       <c r="C493" s="1">
-        <v>26.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B494" s="1">
         <v>19.0</v>
       </c>
       <c r="C494" s="1">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B495" s="1">
         <v>19.0</v>
       </c>
       <c r="C495" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B496" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C496" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B497" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C497" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B498" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C498" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B499" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C499" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B500" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C500" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B501" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C501" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B502" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C502" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B503" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C503" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B504" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C504" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B505" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C505" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B506" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C506" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B507" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C507" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B508" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C508" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B509" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C509" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B510" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C510" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B511" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C511" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B512" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C512" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B513" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C513" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B514" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="C514" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -7837,10 +8082,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
@@ -7848,7 +8093,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -7856,7 +8101,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
@@ -7864,7 +8109,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -7872,7 +8117,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6">
@@ -7880,7 +8125,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -7888,7 +8133,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -7896,7 +8141,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
@@ -7904,7 +8149,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -7912,7 +8157,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -7920,7 +8165,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -7928,7 +8173,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -7936,7 +8181,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -7944,7 +8189,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -7952,7 +8197,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
@@ -7960,7 +8205,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -7968,7 +8213,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +8236,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
@@ -8028,7 +8273,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -8068,7 +8313,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -8100,15 +8345,15 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -8116,7 +8361,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -8124,7 +8369,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -8132,7 +8377,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -8140,7 +8385,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>2.0</v>
@@ -8148,7 +8393,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -8156,7 +8401,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -8164,7 +8409,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -8172,7 +8417,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -8180,7 +8425,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -8188,7 +8433,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1">
         <v>2.0</v>
@@ -8196,7 +8441,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>2.0</v>
@@ -8204,23 +8449,23 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>3.0</v>
@@ -8228,7 +8473,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>3.0</v>
@@ -8236,7 +8481,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>3.0</v>
@@ -8244,7 +8489,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1">
         <v>3.0</v>
@@ -8252,7 +8497,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1">
         <v>3.0</v>
@@ -8260,7 +8505,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>3.0</v>
@@ -8268,7 +8513,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -8276,7 +8521,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>3.0</v>
@@ -8284,7 +8529,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
         <v>3.0</v>
@@ -8292,7 +8537,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
         <v>3.0</v>
@@ -8300,7 +8545,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1">
         <v>3.0</v>
@@ -8308,31 +8553,31 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B41" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B44" s="1">
         <v>4.0</v>
@@ -8340,7 +8585,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B45" s="1">
         <v>4.0</v>
@@ -8348,7 +8593,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B46" s="1">
         <v>4.0</v>
@@ -8356,7 +8601,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -8364,7 +8609,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1">
         <v>4.0</v>
@@ -8372,7 +8617,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B49" s="1">
         <v>4.0</v>
@@ -8380,7 +8625,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B50" s="1">
         <v>4.0</v>
@@ -8388,7 +8633,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1">
         <v>4.0</v>
@@ -8396,7 +8641,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B52" s="1">
         <v>4.0</v>
@@ -8404,7 +8649,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B53" s="1">
         <v>4.0</v>
@@ -8412,39 +8657,39 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B58" s="1">
         <v>5.0</v>
@@ -8452,7 +8697,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1">
         <v>5.0</v>
@@ -8460,7 +8705,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B60" s="1">
         <v>5.0</v>
@@ -8468,7 +8713,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1">
         <v>5.0</v>
@@ -8476,7 +8721,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1">
         <v>5.0</v>
@@ -8484,7 +8729,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B63" s="1">
         <v>5.0</v>
@@ -8492,7 +8737,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B64" s="1">
         <v>5.0</v>
@@ -8500,7 +8745,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B65" s="1">
         <v>5.0</v>
@@ -8508,7 +8753,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B66" s="1">
         <v>5.0</v>
@@ -8516,39 +8761,39 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B67" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B69" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1">
         <v>6.0</v>
@@ -8556,7 +8801,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B72" s="1">
         <v>6.0</v>
@@ -8564,7 +8809,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1">
         <v>6.0</v>
@@ -8572,7 +8817,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1">
         <v>6.0</v>
@@ -8580,7 +8825,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1">
         <v>6.0</v>
@@ -8588,7 +8833,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B76" s="1">
         <v>6.0</v>
@@ -8596,7 +8841,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B77" s="1">
         <v>6.0</v>
@@ -8604,7 +8849,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1">
         <v>6.0</v>
@@ -8612,7 +8857,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B79" s="1">
         <v>6.0</v>
@@ -8620,39 +8865,39 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B80" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B81" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B82" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B83" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B84" s="1">
         <v>7.0</v>
@@ -8660,7 +8905,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B85" s="1">
         <v>7.0</v>
@@ -8668,7 +8913,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B86" s="1">
         <v>7.0</v>
@@ -8676,7 +8921,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1">
         <v>7.0</v>
@@ -8684,7 +8929,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B88" s="1">
         <v>7.0</v>
@@ -8692,7 +8937,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1">
         <v>7.0</v>
@@ -8700,7 +8945,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B90" s="1">
         <v>7.0</v>
@@ -8708,7 +8953,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1">
         <v>7.0</v>
@@ -8716,7 +8961,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1">
         <v>7.0</v>
@@ -8724,39 +8969,39 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B93" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B95" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B96" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B97" s="1">
         <v>8.0</v>
@@ -8764,7 +9009,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B98" s="1">
         <v>8.0</v>
@@ -8772,7 +9017,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B99" s="1">
         <v>8.0</v>
@@ -8780,7 +9025,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B100" s="1">
         <v>8.0</v>
@@ -8788,7 +9033,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B101" s="1">
         <v>8.0</v>
@@ -8796,7 +9041,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B102" s="1">
         <v>8.0</v>
@@ -8804,7 +9049,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1">
         <v>8.0</v>
@@ -8812,7 +9057,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B104" s="1">
         <v>8.0</v>
@@ -8820,7 +9065,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B105" s="1">
         <v>8.0</v>
@@ -8828,39 +9073,39 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B106" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B107" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B108" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B110" s="1">
         <v>9.0</v>
@@ -8868,7 +9113,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B111" s="1">
         <v>9.0</v>
@@ -8876,7 +9121,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B112" s="1">
         <v>9.0</v>
@@ -8884,7 +9129,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B113" s="1">
         <v>9.0</v>
@@ -8892,7 +9137,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B114" s="1">
         <v>9.0</v>
@@ -8900,7 +9145,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B115" s="1">
         <v>9.0</v>
@@ -8908,7 +9153,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B116" s="1">
         <v>9.0</v>
@@ -8916,7 +9161,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B117" s="1">
         <v>9.0</v>
@@ -8924,7 +9169,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B118" s="1">
         <v>9.0</v>
@@ -8932,39 +9177,39 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B120" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B121" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B122" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B123" s="1">
         <v>10.0</v>
@@ -8972,7 +9217,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1">
         <v>10.0</v>
@@ -8980,7 +9225,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B125" s="1">
         <v>10.0</v>
@@ -8988,7 +9233,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B126" s="1">
         <v>10.0</v>
@@ -8996,7 +9241,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B127" s="1">
         <v>10.0</v>
@@ -9004,7 +9249,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B128" s="1">
         <v>10.0</v>
@@ -9012,7 +9257,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B129" s="1">
         <v>10.0</v>
@@ -9020,7 +9265,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B130" s="1">
         <v>10.0</v>
@@ -9028,7 +9273,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B131" s="1">
         <v>10.0</v>
@@ -9036,39 +9281,39 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B132" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B133" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B134" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B135" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B136" s="1">
         <v>11.0</v>
@@ -9076,7 +9321,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B137" s="1">
         <v>11.0</v>
@@ -9084,7 +9329,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B138" s="1">
         <v>11.0</v>
@@ -9092,7 +9337,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1">
         <v>11.0</v>
@@ -9100,7 +9345,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B140" s="1">
         <v>11.0</v>
@@ -9108,7 +9353,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B141" s="1">
         <v>11.0</v>
@@ -9116,7 +9361,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B142" s="1">
         <v>11.0</v>
@@ -9124,7 +9369,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B143" s="1">
         <v>11.0</v>
@@ -9132,7 +9377,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B144" s="1">
         <v>11.0</v>
@@ -9140,39 +9385,39 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B145" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B146" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B147" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B148" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B149" s="1">
         <v>12.0</v>
@@ -9180,7 +9425,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B150" s="1">
         <v>12.0</v>
@@ -9188,7 +9433,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B151" s="1">
         <v>12.0</v>
@@ -9196,7 +9441,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1">
         <v>12.0</v>
@@ -9204,7 +9449,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B153" s="1">
         <v>12.0</v>
@@ -9212,7 +9457,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B154" s="1">
         <v>12.0</v>
@@ -9220,7 +9465,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B155" s="1">
         <v>12.0</v>
@@ -9228,7 +9473,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B156" s="1">
         <v>12.0</v>
@@ -9236,7 +9481,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B157" s="1">
         <v>12.0</v>
@@ -9244,39 +9489,39 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B158" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B159" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B160" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B161" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B162" s="1">
         <v>13.0</v>
@@ -9284,7 +9529,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B163" s="1">
         <v>13.0</v>
@@ -9292,7 +9537,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B164" s="1">
         <v>13.0</v>
@@ -9300,7 +9545,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B165" s="1">
         <v>13.0</v>
@@ -9308,7 +9553,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B166" s="1">
         <v>13.0</v>
@@ -9316,7 +9561,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B167" s="1">
         <v>13.0</v>
@@ -9324,7 +9569,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B168" s="1">
         <v>13.0</v>
@@ -9332,7 +9577,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B169" s="1">
         <v>13.0</v>
@@ -9340,7 +9585,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B170" s="1">
         <v>13.0</v>
@@ -9348,39 +9593,39 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B171" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B172" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B173" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B174" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B175" s="1">
         <v>14.0</v>
@@ -9388,7 +9633,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B176" s="1">
         <v>14.0</v>
@@ -9396,7 +9641,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B177" s="1">
         <v>14.0</v>
@@ -9404,7 +9649,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B178" s="1">
         <v>14.0</v>
@@ -9412,7 +9657,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B179" s="1">
         <v>14.0</v>
@@ -9420,7 +9665,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B180" s="1">
         <v>14.0</v>
@@ -9428,7 +9673,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B181" s="1">
         <v>14.0</v>
@@ -9436,7 +9681,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B182" s="1">
         <v>14.0</v>
@@ -9444,7 +9689,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B183" s="1">
         <v>14.0</v>
@@ -9452,39 +9697,39 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B184" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B185" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B186" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B187" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B188" s="1">
         <v>15.0</v>
@@ -9492,7 +9737,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B189" s="1">
         <v>15.0</v>
@@ -9500,7 +9745,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B190" s="1">
         <v>15.0</v>
@@ -9508,7 +9753,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B191" s="1">
         <v>15.0</v>
@@ -9516,7 +9761,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B192" s="1">
         <v>15.0</v>
@@ -9524,7 +9769,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B193" s="1">
         <v>15.0</v>
@@ -9532,7 +9777,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B194" s="1">
         <v>15.0</v>
@@ -9540,7 +9785,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B195" s="1">
         <v>15.0</v>
@@ -9548,7 +9793,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B196" s="1">
         <v>15.0</v>
@@ -9556,39 +9801,39 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B197" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B198" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B199" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B200" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B201" s="1">
         <v>16.0</v>
@@ -9596,7 +9841,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B202" s="1">
         <v>16.0</v>
@@ -9604,7 +9849,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B203" s="1">
         <v>16.0</v>
@@ -9612,7 +9857,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B204" s="1">
         <v>16.0</v>
@@ -9620,7 +9865,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B205" s="1">
         <v>16.0</v>
@@ -9628,7 +9873,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B206" s="1">
         <v>16.0</v>
@@ -9636,7 +9881,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B207" s="1">
         <v>16.0</v>
@@ -9644,7 +9889,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B208" s="1">
         <v>16.0</v>
@@ -9652,9 +9897,41 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B209" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B212" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B213" s="1">
         <v>16.0</v>
       </c>
     </row>

--- a/Test Data.xlsx
+++ b/Test Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="183">
   <si>
     <t>Time Id</t>
   </si>
@@ -59,168 +59,252 @@
     <t>Session Duration</t>
   </si>
   <si>
+    <t>c_abbreviation</t>
+  </si>
+  <si>
     <t>CSC401</t>
   </si>
   <si>
     <t>Engineering Mathematics IV</t>
   </si>
   <si>
+    <t>EM</t>
+  </si>
+  <si>
     <t>CSC402</t>
   </si>
   <si>
     <t>Analysis of Algorithm</t>
   </si>
   <si>
+    <t>AOA</t>
+  </si>
+  <si>
     <t>CSC403</t>
   </si>
   <si>
     <t>Database Management System</t>
   </si>
   <si>
+    <t>DBMS</t>
+  </si>
+  <si>
     <t>CSC404</t>
   </si>
   <si>
     <t>Operating System</t>
   </si>
   <si>
+    <t>OS</t>
+  </si>
+  <si>
     <t>CSC405</t>
   </si>
   <si>
     <t>Microprocessor</t>
   </si>
   <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>CSL401</t>
   </si>
   <si>
     <t>Analysis of Algorithm Lab</t>
   </si>
   <si>
+    <t>AOAL</t>
+  </si>
+  <si>
     <t>CSL402</t>
   </si>
   <si>
     <t>Database Management System Lab</t>
   </si>
   <si>
+    <t>DBMSL</t>
+  </si>
+  <si>
     <t>CSL403</t>
   </si>
   <si>
     <t>Operating System Lab</t>
   </si>
   <si>
+    <t>OSL</t>
+  </si>
+  <si>
     <t>CSL404</t>
   </si>
   <si>
     <t>Microprocessor Lab</t>
   </si>
   <si>
+    <t>MPL</t>
+  </si>
+  <si>
     <t>CSL405</t>
   </si>
   <si>
     <t>Python Programming</t>
   </si>
   <si>
+    <t>PPL</t>
+  </si>
+  <si>
     <t>CSC601</t>
   </si>
   <si>
     <t>System Programming and Compiler Construction</t>
   </si>
   <si>
+    <t>SPCC</t>
+  </si>
+  <si>
     <t>CSC602</t>
   </si>
   <si>
     <t>Cryptography and System Security</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>CSC603</t>
   </si>
   <si>
     <t>Mobile Computing</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>CSC604</t>
   </si>
   <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>CSC605</t>
   </si>
   <si>
     <t>Quantitative Analysis</t>
   </si>
   <si>
+    <t>QA</t>
+  </si>
+  <si>
     <t>CSL601</t>
   </si>
   <si>
     <t>System Programming and Compiler Construction Lab</t>
   </si>
   <si>
+    <t>SPCCL</t>
+  </si>
+  <si>
     <t>CSL602</t>
   </si>
   <si>
     <t>Cryptography and System Security Lab</t>
   </si>
   <si>
+    <t>CSSL</t>
+  </si>
+  <si>
     <t>CSL603</t>
   </si>
   <si>
     <t>Mobile Computing Lab</t>
   </si>
   <si>
+    <t>MCL</t>
+  </si>
+  <si>
     <t>CSL604</t>
   </si>
   <si>
     <t>Artificial Intelligence Lab</t>
   </si>
   <si>
+    <t>AIL</t>
+  </si>
+  <si>
     <t>CSL605</t>
   </si>
   <si>
     <t>Cloud Computing</t>
   </si>
   <si>
+    <t>CCL</t>
+  </si>
+  <si>
     <t>CSC801</t>
   </si>
   <si>
     <t>Distributed Computing</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>CSC802</t>
   </si>
   <si>
     <t>Department Level Elective 1</t>
   </si>
   <si>
+    <t>DLE1</t>
+  </si>
+  <si>
     <t>CSC803</t>
   </si>
   <si>
     <t>Department Level Elective 2</t>
   </si>
   <si>
+    <t>DLE2</t>
+  </si>
+  <si>
     <t>CSC804</t>
   </si>
   <si>
     <t>Institute Level Elective</t>
   </si>
   <si>
+    <t>ILE</t>
+  </si>
+  <si>
     <t>CSL801</t>
   </si>
   <si>
     <t>Distributed Computing Lab</t>
   </si>
   <si>
+    <t>DCL</t>
+  </si>
+  <si>
     <t>CSL802</t>
   </si>
   <si>
     <t>Department Level Elective 1 Lab</t>
   </si>
   <si>
+    <t>DLE1L</t>
+  </si>
+  <si>
     <t>CSL803</t>
   </si>
   <si>
     <t>Department Level Elective 2 Lab</t>
   </si>
   <si>
+    <t>DLE2L</t>
+  </si>
+  <si>
     <t>Class Id</t>
   </si>
   <si>
@@ -245,115 +329,187 @@
     <t>Lastname</t>
   </si>
   <si>
+    <t>t_abbreviation</t>
+  </si>
+  <si>
     <t>Dyaneshwar</t>
   </si>
   <si>
     <t>Kapse</t>
   </si>
   <si>
+    <t>DPK</t>
+  </si>
+  <si>
     <t>Sunil</t>
   </si>
   <si>
     <t>Khachane</t>
   </si>
   <si>
+    <t>SPK</t>
+  </si>
+  <si>
     <t>Priya</t>
   </si>
   <si>
     <t>Parate</t>
   </si>
   <si>
+    <t>PPP</t>
+  </si>
+  <si>
     <t>Sharmila</t>
   </si>
   <si>
     <t>Rathod</t>
   </si>
   <si>
+    <t>SNR</t>
+  </si>
+  <si>
     <t>Dilip</t>
   </si>
   <si>
     <t>Kale</t>
   </si>
   <si>
+    <t>DSK</t>
+  </si>
+  <si>
     <t>Bhushan</t>
   </si>
   <si>
     <t>Patil</t>
   </si>
   <si>
+    <t>BMP</t>
+  </si>
+  <si>
     <t>Preeti</t>
   </si>
   <si>
     <t>Satao</t>
   </si>
   <si>
+    <t>PS</t>
+  </si>
+  <si>
     <t>Dalgade</t>
   </si>
   <si>
+    <t>DMD</t>
+  </si>
+  <si>
     <t>Bhavesh</t>
   </si>
   <si>
     <t>Panchal</t>
   </si>
   <si>
+    <t>BNP</t>
+  </si>
+  <si>
     <t>Kajal</t>
   </si>
   <si>
     <t>Sharma</t>
   </si>
   <si>
+    <t>KS</t>
+  </si>
+  <si>
     <t>Savita</t>
   </si>
   <si>
     <t>Lade</t>
   </si>
   <si>
+    <t>SVL</t>
+  </si>
+  <si>
     <t>Suresh</t>
   </si>
   <si>
     <t>Mistry</t>
   </si>
   <si>
+    <t>SM</t>
+  </si>
+  <si>
     <t>Sumitra</t>
   </si>
   <si>
     <t>Sadhukan</t>
   </si>
   <si>
+    <t>SS</t>
+  </si>
+  <si>
     <t>Naina</t>
   </si>
   <si>
     <t>Kaushik</t>
   </si>
   <si>
+    <t>NK</t>
+  </si>
+  <si>
     <t>Priyanka</t>
   </si>
   <si>
     <t>Bhillare</t>
   </si>
   <si>
+    <t>PB</t>
+  </si>
+  <si>
     <t>Deepak</t>
   </si>
   <si>
     <t>Gaikar</t>
   </si>
   <si>
+    <t>DG</t>
+  </si>
+  <si>
     <t>Prof</t>
   </si>
   <si>
     <t>Saumyashree</t>
   </si>
   <si>
+    <t>SMS</t>
+  </si>
+  <si>
     <t>Shivani</t>
   </si>
   <si>
     <t>Kuduple</t>
   </si>
   <si>
+    <t>SK</t>
+  </si>
+  <si>
     <t>Aditi</t>
   </si>
   <si>
     <t>Malkar</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Shikha</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Manoj</t>
   </si>
   <si>
     <t>Preference</t>
@@ -417,7 +573,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -428,6 +584,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -453,6 +613,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,13 +1398,16 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>3.0</v>
@@ -1249,13 +1415,16 @@
       <c r="D2" s="1">
         <v>1.0</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
@@ -1263,13 +1432,16 @@
       <c r="D3" s="1">
         <v>1.0</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>3.0</v>
@@ -1277,13 +1449,16 @@
       <c r="D4" s="1">
         <v>1.0</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>3.0</v>
@@ -1291,13 +1466,16 @@
       <c r="D5" s="1">
         <v>1.0</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>3.0</v>
@@ -1305,13 +1483,16 @@
       <c r="D6" s="1">
         <v>1.0</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>1.0</v>
@@ -1319,13 +1500,16 @@
       <c r="D7" s="1">
         <v>2.0</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>1.0</v>
@@ -1333,13 +1517,16 @@
       <c r="D8" s="1">
         <v>2.0</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>1.0</v>
@@ -1347,13 +1534,16 @@
       <c r="D9" s="1">
         <v>2.0</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
@@ -1361,13 +1551,16 @@
       <c r="D10" s="1">
         <v>2.0</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>1.0</v>
@@ -1375,13 +1568,16 @@
       <c r="D11" s="1">
         <v>2.0</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>3.0</v>
@@ -1389,13 +1585,16 @@
       <c r="D12" s="1">
         <v>1.0</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>3.0</v>
@@ -1403,13 +1602,16 @@
       <c r="D13" s="1">
         <v>1.0</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>3.0</v>
@@ -1417,13 +1619,16 @@
       <c r="D14" s="1">
         <v>1.0</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>3.0</v>
@@ -1431,13 +1636,16 @@
       <c r="D15" s="1">
         <v>1.0</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1">
         <v>3.0</v>
@@ -1445,13 +1653,16 @@
       <c r="D16" s="1">
         <v>1.0</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
@@ -1459,13 +1670,16 @@
       <c r="D17" s="1">
         <v>2.0</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1">
         <v>1.0</v>
@@ -1473,13 +1687,16 @@
       <c r="D18" s="1">
         <v>2.0</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
@@ -1487,13 +1704,16 @@
       <c r="D19" s="1">
         <v>2.0</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>1.0</v>
@@ -1501,13 +1721,16 @@
       <c r="D20" s="1">
         <v>2.0</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
@@ -1515,13 +1738,16 @@
       <c r="D21" s="1">
         <v>2.0</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
         <v>3.0</v>
@@ -1529,13 +1755,16 @@
       <c r="D22" s="1">
         <v>1.0</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1">
         <v>3.0</v>
@@ -1543,13 +1772,16 @@
       <c r="D23" s="1">
         <v>1.0</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1">
         <v>3.0</v>
@@ -1557,13 +1789,16 @@
       <c r="D24" s="1">
         <v>1.0</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1">
         <v>3.0</v>
@@ -1571,13 +1806,16 @@
       <c r="D25" s="1">
         <v>1.0</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -1585,13 +1823,16 @@
       <c r="D26" s="1">
         <v>2.0</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C27" s="1">
         <v>1.0</v>
@@ -1599,19 +1840,25 @@
       <c r="D27" s="1">
         <v>2.0</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1">
         <v>1.0</v>
       </c>
       <c r="D28" s="1">
         <v>2.0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1631,13 +1878,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -1648,7 +1895,7 @@
         <v>2.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -1659,7 +1906,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -1670,7 +1917,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -1681,7 +1928,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
@@ -1692,7 +1939,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -1703,7 +1950,7 @@
         <v>4.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +1970,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1734,7 +1981,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1742,7 +1989,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1750,7 +1997,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1758,7 +2005,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1766,7 +2013,7 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1774,7 +2021,7 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1782,7 +2029,7 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1790,7 +2037,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1798,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1806,7 +2053,7 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1814,7 +2061,7 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1822,7 +2069,7 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -1830,7 +2077,7 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1838,7 +2085,7 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1846,7 +2093,7 @@
         <v>2.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -1854,7 +2101,7 @@
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1862,7 +2109,7 @@
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1870,7 +2117,7 @@
         <v>2.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -1878,7 +2125,7 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1886,7 +2133,7 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1894,7 +2141,7 @@
         <v>3.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -1902,7 +2149,7 @@
         <v>3.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
@@ -1910,7 +2157,7 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
@@ -1918,7 +2165,7 @@
         <v>3.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
@@ -1926,7 +2173,7 @@
         <v>3.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1934,7 +2181,7 @@
         <v>3.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1942,7 +2189,7 @@
         <v>3.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -1950,7 +2197,7 @@
         <v>3.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -1958,7 +2205,7 @@
         <v>3.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
@@ -1966,7 +2213,7 @@
         <v>3.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
@@ -1974,7 +2221,7 @@
         <v>4.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1982,7 +2229,7 @@
         <v>4.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
@@ -1990,7 +2237,7 @@
         <v>4.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35">
@@ -1998,7 +2245,7 @@
         <v>4.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -2006,7 +2253,7 @@
         <v>4.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
@@ -2014,7 +2261,7 @@
         <v>4.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38">
@@ -2022,7 +2269,7 @@
         <v>4.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39">
@@ -2030,7 +2277,7 @@
         <v>4.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -2038,7 +2285,7 @@
         <v>4.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
@@ -2046,7 +2293,7 @@
         <v>4.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -2054,7 +2301,7 @@
         <v>5.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
@@ -2062,7 +2309,7 @@
         <v>5.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -2070,7 +2317,7 @@
         <v>5.0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -2078,7 +2325,7 @@
         <v>5.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46">
@@ -2086,7 +2333,7 @@
         <v>5.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -2094,7 +2341,7 @@
         <v>5.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48">
@@ -2102,7 +2349,7 @@
         <v>5.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49">
@@ -2110,7 +2357,7 @@
         <v>6.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -2118,7 +2365,7 @@
         <v>6.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -2126,7 +2373,7 @@
         <v>6.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -2134,7 +2381,7 @@
         <v>6.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53">
@@ -2142,7 +2389,7 @@
         <v>6.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54">
@@ -2150,7 +2397,7 @@
         <v>6.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55">
@@ -2158,7 +2405,7 @@
         <v>6.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2178,13 +2425,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2">
@@ -2192,10 +2442,13 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -2203,10 +2456,13 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -2214,10 +2470,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5">
@@ -2225,10 +2484,13 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -2236,10 +2498,13 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7">
@@ -2247,10 +2512,13 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
@@ -2258,10 +2526,13 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>123</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -2269,10 +2540,13 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2280,10 +2554,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2568,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>131</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2302,10 +2582,13 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2313,10 +2596,13 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>137</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2324,10 +2610,13 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>140</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15">
@@ -2335,10 +2624,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>101</v>
+        <v>143</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2346,10 +2638,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="17">
@@ -2357,10 +2652,13 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18">
@@ -2368,10 +2666,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19">
@@ -2379,10 +2680,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>155</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2390,10 +2694,41 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2416,15 +2751,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -2435,7 +2770,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -2446,7 +2781,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -2457,7 +2792,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -2468,7 +2803,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -2479,7 +2814,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -2490,7 +2825,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -2501,7 +2836,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -2512,7 +2847,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -2523,7 +2858,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -2534,7 +2869,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -2545,7 +2880,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -2556,7 +2891,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -2567,7 +2902,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -2578,7 +2913,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -2589,7 +2924,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -2600,7 +2935,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -2611,7 +2946,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
@@ -2622,7 +2957,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -2633,7 +2968,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -2644,7 +2979,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -2655,7 +2990,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>1.0</v>
@@ -2666,7 +3001,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1">
         <v>1.0</v>
@@ -2677,7 +3012,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -2688,7 +3023,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1">
         <v>1.0</v>
@@ -2699,7 +3034,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
@@ -2710,7 +3045,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -2721,7 +3056,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
         <v>2.0</v>
@@ -2732,7 +3067,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>2.0</v>
@@ -2743,7 +3078,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31" s="1">
         <v>2.0</v>
@@ -2754,7 +3089,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
         <v>2.0</v>
@@ -2765,7 +3100,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
         <v>2.0</v>
@@ -2776,7 +3111,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -2787,7 +3122,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -2798,7 +3133,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>2.0</v>
@@ -2809,7 +3144,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>2.0</v>
@@ -2820,7 +3155,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>2.0</v>
@@ -2831,7 +3166,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>2.0</v>
@@ -2842,7 +3177,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1">
         <v>2.0</v>
@@ -2853,7 +3188,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1">
         <v>2.0</v>
@@ -2864,7 +3199,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1">
         <v>2.0</v>
@@ -2875,7 +3210,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
         <v>2.0</v>
@@ -2886,7 +3221,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
@@ -2897,7 +3232,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1">
         <v>2.0</v>
@@ -2908,7 +3243,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1">
         <v>2.0</v>
@@ -2919,7 +3254,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B47" s="1">
         <v>2.0</v>
@@ -2930,7 +3265,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B48" s="1">
         <v>2.0</v>
@@ -2941,7 +3276,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1">
         <v>2.0</v>
@@ -2952,7 +3287,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1">
         <v>2.0</v>
@@ -2963,7 +3298,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1">
         <v>2.0</v>
@@ -2974,7 +3309,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1">
         <v>2.0</v>
@@ -2985,7 +3320,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1">
         <v>2.0</v>
@@ -2996,7 +3331,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -3007,7 +3342,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B55" s="1">
         <v>2.0</v>
@@ -3018,7 +3353,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1">
         <v>3.0</v>
@@ -3029,7 +3364,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B57" s="1">
         <v>3.0</v>
@@ -3040,7 +3375,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B58" s="1">
         <v>3.0</v>
@@ -3051,7 +3386,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
         <v>3.0</v>
@@ -3062,7 +3397,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B60" s="1">
         <v>3.0</v>
@@ -3073,7 +3408,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B61" s="1">
         <v>3.0</v>
@@ -3084,7 +3419,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B62" s="1">
         <v>3.0</v>
@@ -3095,7 +3430,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B63" s="1">
         <v>3.0</v>
@@ -3106,7 +3441,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B64" s="1">
         <v>3.0</v>
@@ -3117,7 +3452,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1">
         <v>3.0</v>
@@ -3128,7 +3463,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1">
         <v>3.0</v>
@@ -3139,7 +3474,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B67" s="1">
         <v>3.0</v>
@@ -3150,7 +3485,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B68" s="1">
         <v>3.0</v>
@@ -3161,7 +3496,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B69" s="1">
         <v>3.0</v>
@@ -3172,7 +3507,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1">
         <v>3.0</v>
@@ -3183,7 +3518,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1">
         <v>3.0</v>
@@ -3194,7 +3529,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B72" s="1">
         <v>3.0</v>
@@ -3205,7 +3540,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B73" s="1">
         <v>3.0</v>
@@ -3216,7 +3551,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B74" s="1">
         <v>3.0</v>
@@ -3227,7 +3562,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1">
         <v>3.0</v>
@@ -3238,7 +3573,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>3.0</v>
@@ -3249,7 +3584,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>3.0</v>
@@ -3260,7 +3595,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1">
         <v>3.0</v>
@@ -3271,7 +3606,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B79" s="1">
         <v>3.0</v>
@@ -3282,7 +3617,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1">
         <v>3.0</v>
@@ -3293,7 +3628,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B81" s="1">
         <v>3.0</v>
@@ -3304,7 +3639,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B82" s="1">
         <v>3.0</v>
@@ -3315,7 +3650,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B83" s="1">
         <v>4.0</v>
@@ -3326,7 +3661,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B84" s="1">
         <v>4.0</v>
@@ -3337,7 +3672,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1">
         <v>4.0</v>
@@ -3348,7 +3683,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B86" s="1">
         <v>4.0</v>
@@ -3359,7 +3694,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B87" s="1">
         <v>4.0</v>
@@ -3370,7 +3705,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1">
         <v>4.0</v>
@@ -3381,7 +3716,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B89" s="1">
         <v>4.0</v>
@@ -3392,7 +3727,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B90" s="1">
         <v>4.0</v>
@@ -3403,7 +3738,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1">
         <v>4.0</v>
@@ -3414,7 +3749,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B92" s="1">
         <v>4.0</v>
@@ -3425,7 +3760,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B93" s="1">
         <v>4.0</v>
@@ -3436,7 +3771,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B94" s="1">
         <v>4.0</v>
@@ -3447,7 +3782,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B95" s="1">
         <v>4.0</v>
@@ -3458,7 +3793,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B96" s="1">
         <v>4.0</v>
@@ -3469,7 +3804,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B97" s="1">
         <v>4.0</v>
@@ -3480,7 +3815,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B98" s="1">
         <v>4.0</v>
@@ -3491,7 +3826,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B99" s="1">
         <v>4.0</v>
@@ -3502,7 +3837,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B100" s="1">
         <v>4.0</v>
@@ -3513,7 +3848,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B101" s="1">
         <v>4.0</v>
@@ -3524,7 +3859,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B102" s="1">
         <v>4.0</v>
@@ -3535,7 +3870,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B103" s="1">
         <v>4.0</v>
@@ -3546,7 +3881,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B104" s="1">
         <v>4.0</v>
@@ -3557,7 +3892,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B105" s="1">
         <v>4.0</v>
@@ -3568,7 +3903,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B106" s="1">
         <v>4.0</v>
@@ -3579,7 +3914,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B107" s="1">
         <v>4.0</v>
@@ -3590,7 +3925,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B108" s="1">
         <v>4.0</v>
@@ -3601,7 +3936,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B109" s="1">
         <v>4.0</v>
@@ -3612,7 +3947,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" s="1">
         <v>5.0</v>
@@ -3623,7 +3958,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B111" s="1">
         <v>5.0</v>
@@ -3634,7 +3969,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B112" s="1">
         <v>5.0</v>
@@ -3645,7 +3980,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B113" s="1">
         <v>5.0</v>
@@ -3656,7 +3991,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B114" s="1">
         <v>5.0</v>
@@ -3667,7 +4002,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B115" s="1">
         <v>5.0</v>
@@ -3678,7 +4013,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B116" s="1">
         <v>5.0</v>
@@ -3689,7 +4024,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B117" s="1">
         <v>5.0</v>
@@ -3700,7 +4035,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B118" s="1">
         <v>5.0</v>
@@ -3711,7 +4046,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B119" s="1">
         <v>5.0</v>
@@ -3722,7 +4057,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B120" s="1">
         <v>5.0</v>
@@ -3733,7 +4068,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B121" s="1">
         <v>5.0</v>
@@ -3744,7 +4079,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B122" s="1">
         <v>5.0</v>
@@ -3755,7 +4090,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B123" s="1">
         <v>5.0</v>
@@ -3766,7 +4101,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B124" s="1">
         <v>5.0</v>
@@ -3777,7 +4112,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B125" s="1">
         <v>5.0</v>
@@ -3788,7 +4123,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B126" s="1">
         <v>5.0</v>
@@ -3799,7 +4134,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B127" s="1">
         <v>5.0</v>
@@ -3810,7 +4145,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B128" s="1">
         <v>5.0</v>
@@ -3821,7 +4156,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B129" s="1">
         <v>5.0</v>
@@ -3832,7 +4167,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B130" s="1">
         <v>5.0</v>
@@ -3843,7 +4178,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B131" s="1">
         <v>5.0</v>
@@ -3854,7 +4189,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B132" s="1">
         <v>5.0</v>
@@ -3865,7 +4200,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B133" s="1">
         <v>5.0</v>
@@ -3876,7 +4211,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B134" s="1">
         <v>5.0</v>
@@ -3887,7 +4222,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B135" s="1">
         <v>5.0</v>
@@ -3898,7 +4233,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B136" s="1">
         <v>5.0</v>
@@ -3909,7 +4244,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B137" s="1">
         <v>6.0</v>
@@ -3920,7 +4255,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B138" s="1">
         <v>6.0</v>
@@ -3931,7 +4266,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B139" s="1">
         <v>6.0</v>
@@ -3942,7 +4277,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B140" s="1">
         <v>6.0</v>
@@ -3953,7 +4288,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1">
         <v>6.0</v>
@@ -3964,7 +4299,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1">
         <v>6.0</v>
@@ -3975,7 +4310,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B143" s="1">
         <v>6.0</v>
@@ -3986,7 +4321,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B144" s="1">
         <v>6.0</v>
@@ -3997,7 +4332,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B145" s="1">
         <v>6.0</v>
@@ -4008,7 +4343,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B146" s="1">
         <v>6.0</v>
@@ -4019,7 +4354,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B147" s="1">
         <v>6.0</v>
@@ -4030,7 +4365,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B148" s="1">
         <v>6.0</v>
@@ -4041,7 +4376,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B149" s="1">
         <v>6.0</v>
@@ -4052,7 +4387,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B150" s="1">
         <v>6.0</v>
@@ -4063,7 +4398,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B151" s="1">
         <v>6.0</v>
@@ -4074,7 +4409,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B152" s="1">
         <v>6.0</v>
@@ -4085,7 +4420,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B153" s="1">
         <v>6.0</v>
@@ -4096,7 +4431,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B154" s="1">
         <v>6.0</v>
@@ -4107,7 +4442,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B155" s="1">
         <v>6.0</v>
@@ -4118,7 +4453,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B156" s="1">
         <v>6.0</v>
@@ -4129,7 +4464,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B157" s="1">
         <v>6.0</v>
@@ -4140,7 +4475,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B158" s="1">
         <v>6.0</v>
@@ -4151,7 +4486,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B159" s="1">
         <v>6.0</v>
@@ -4162,7 +4497,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B160" s="1">
         <v>6.0</v>
@@ -4173,7 +4508,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B161" s="1">
         <v>6.0</v>
@@ -4184,7 +4519,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B162" s="1">
         <v>6.0</v>
@@ -4195,7 +4530,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B163" s="1">
         <v>6.0</v>
@@ -4206,7 +4541,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B164" s="1">
         <v>7.0</v>
@@ -4217,7 +4552,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B165" s="1">
         <v>7.0</v>
@@ -4228,7 +4563,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B166" s="1">
         <v>7.0</v>
@@ -4239,7 +4574,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B167" s="1">
         <v>7.0</v>
@@ -4250,7 +4585,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B168" s="1">
         <v>7.0</v>
@@ -4261,7 +4596,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1">
         <v>7.0</v>
@@ -4272,7 +4607,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B170" s="1">
         <v>7.0</v>
@@ -4283,7 +4618,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B171" s="1">
         <v>7.0</v>
@@ -4294,7 +4629,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B172" s="1">
         <v>7.0</v>
@@ -4305,7 +4640,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B173" s="1">
         <v>7.0</v>
@@ -4316,7 +4651,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B174" s="1">
         <v>7.0</v>
@@ -4327,7 +4662,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B175" s="1">
         <v>7.0</v>
@@ -4338,7 +4673,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B176" s="1">
         <v>7.0</v>
@@ -4349,7 +4684,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B177" s="1">
         <v>7.0</v>
@@ -4360,7 +4695,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B178" s="1">
         <v>7.0</v>
@@ -4371,7 +4706,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B179" s="1">
         <v>7.0</v>
@@ -4382,7 +4717,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B180" s="1">
         <v>7.0</v>
@@ -4393,7 +4728,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B181" s="1">
         <v>7.0</v>
@@ -4404,7 +4739,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B182" s="1">
         <v>7.0</v>
@@ -4415,7 +4750,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B183" s="1">
         <v>7.0</v>
@@ -4426,7 +4761,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B184" s="1">
         <v>7.0</v>
@@ -4437,7 +4772,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B185" s="1">
         <v>7.0</v>
@@ -4448,7 +4783,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B186" s="1">
         <v>7.0</v>
@@ -4459,7 +4794,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B187" s="1">
         <v>7.0</v>
@@ -4470,7 +4805,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B188" s="1">
         <v>7.0</v>
@@ -4481,7 +4816,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B189" s="1">
         <v>7.0</v>
@@ -4492,7 +4827,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B190" s="1">
         <v>7.0</v>
@@ -4503,7 +4838,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191" s="1">
         <v>8.0</v>
@@ -4514,7 +4849,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B192" s="1">
         <v>8.0</v>
@@ -4525,7 +4860,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B193" s="1">
         <v>8.0</v>
@@ -4536,7 +4871,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B194" s="1">
         <v>8.0</v>
@@ -4547,7 +4882,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B195" s="1">
         <v>8.0</v>
@@ -4558,7 +4893,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B196" s="1">
         <v>8.0</v>
@@ -4569,7 +4904,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B197" s="1">
         <v>8.0</v>
@@ -4580,7 +4915,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B198" s="1">
         <v>8.0</v>
@@ -4591,7 +4926,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B199" s="1">
         <v>8.0</v>
@@ -4602,7 +4937,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B200" s="1">
         <v>8.0</v>
@@ -4613,7 +4948,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B201" s="1">
         <v>8.0</v>
@@ -4624,7 +4959,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B202" s="1">
         <v>8.0</v>
@@ -4635,7 +4970,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B203" s="1">
         <v>8.0</v>
@@ -4646,7 +4981,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B204" s="1">
         <v>8.0</v>
@@ -4657,7 +4992,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B205" s="1">
         <v>8.0</v>
@@ -4668,7 +5003,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B206" s="1">
         <v>8.0</v>
@@ -4679,7 +5014,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B207" s="1">
         <v>8.0</v>
@@ -4690,7 +5025,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B208" s="1">
         <v>8.0</v>
@@ -4701,7 +5036,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B209" s="1">
         <v>8.0</v>
@@ -4712,7 +5047,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B210" s="1">
         <v>8.0</v>
@@ -4723,7 +5058,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B211" s="1">
         <v>8.0</v>
@@ -4734,7 +5069,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B212" s="1">
         <v>8.0</v>
@@ -4745,7 +5080,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B213" s="1">
         <v>8.0</v>
@@ -4756,7 +5091,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B214" s="1">
         <v>8.0</v>
@@ -4767,7 +5102,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B215" s="1">
         <v>8.0</v>
@@ -4778,7 +5113,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B216" s="1">
         <v>8.0</v>
@@ -4789,7 +5124,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B217" s="1">
         <v>8.0</v>
@@ -4800,7 +5135,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B218" s="1">
         <v>9.0</v>
@@ -4811,7 +5146,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B219" s="1">
         <v>9.0</v>
@@ -4822,7 +5157,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B220" s="1">
         <v>9.0</v>
@@ -4833,7 +5168,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B221" s="1">
         <v>9.0</v>
@@ -4844,7 +5179,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B222" s="1">
         <v>9.0</v>
@@ -4855,7 +5190,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B223" s="1">
         <v>9.0</v>
@@ -4866,7 +5201,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B224" s="1">
         <v>9.0</v>
@@ -4877,7 +5212,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B225" s="1">
         <v>9.0</v>
@@ -4888,7 +5223,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B226" s="1">
         <v>9.0</v>
@@ -4899,7 +5234,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B227" s="1">
         <v>9.0</v>
@@ -4910,7 +5245,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B228" s="1">
         <v>9.0</v>
@@ -4921,7 +5256,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B229" s="1">
         <v>9.0</v>
@@ -4932,7 +5267,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B230" s="1">
         <v>9.0</v>
@@ -4943,7 +5278,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B231" s="1">
         <v>9.0</v>
@@ -4954,7 +5289,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B232" s="1">
         <v>9.0</v>
@@ -4965,7 +5300,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B233" s="1">
         <v>9.0</v>
@@ -4976,7 +5311,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B234" s="1">
         <v>9.0</v>
@@ -4987,7 +5322,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B235" s="1">
         <v>9.0</v>
@@ -4998,7 +5333,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B236" s="1">
         <v>9.0</v>
@@ -5009,7 +5344,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B237" s="1">
         <v>9.0</v>
@@ -5020,7 +5355,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B238" s="1">
         <v>9.0</v>
@@ -5031,7 +5366,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B239" s="1">
         <v>9.0</v>
@@ -5042,7 +5377,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B240" s="1">
         <v>9.0</v>
@@ -5053,7 +5388,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B241" s="1">
         <v>9.0</v>
@@ -5064,7 +5399,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B242" s="1">
         <v>9.0</v>
@@ -5075,7 +5410,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B243" s="1">
         <v>9.0</v>
@@ -5086,7 +5421,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B244" s="1">
         <v>9.0</v>
@@ -5097,7 +5432,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B245" s="1">
         <v>10.0</v>
@@ -5108,7 +5443,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B246" s="1">
         <v>10.0</v>
@@ -5119,7 +5454,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B247" s="1">
         <v>10.0</v>
@@ -5130,7 +5465,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B248" s="1">
         <v>10.0</v>
@@ -5141,7 +5476,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B249" s="1">
         <v>10.0</v>
@@ -5152,7 +5487,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B250" s="1">
         <v>10.0</v>
@@ -5163,7 +5498,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B251" s="1">
         <v>10.0</v>
@@ -5174,7 +5509,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B252" s="1">
         <v>10.0</v>
@@ -5185,7 +5520,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B253" s="1">
         <v>10.0</v>
@@ -5196,7 +5531,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B254" s="1">
         <v>10.0</v>
@@ -5207,7 +5542,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B255" s="1">
         <v>10.0</v>
@@ -5218,7 +5553,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B256" s="1">
         <v>10.0</v>
@@ -5229,7 +5564,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B257" s="1">
         <v>10.0</v>
@@ -5240,7 +5575,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B258" s="1">
         <v>10.0</v>
@@ -5251,7 +5586,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B259" s="1">
         <v>10.0</v>
@@ -5262,7 +5597,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B260" s="1">
         <v>10.0</v>
@@ -5273,7 +5608,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B261" s="1">
         <v>10.0</v>
@@ -5284,7 +5619,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B262" s="1">
         <v>10.0</v>
@@ -5295,7 +5630,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B263" s="1">
         <v>10.0</v>
@@ -5306,7 +5641,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B264" s="1">
         <v>10.0</v>
@@ -5317,7 +5652,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B265" s="1">
         <v>10.0</v>
@@ -5328,7 +5663,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B266" s="1">
         <v>10.0</v>
@@ -5339,7 +5674,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B267" s="1">
         <v>10.0</v>
@@ -5350,7 +5685,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B268" s="1">
         <v>10.0</v>
@@ -5361,7 +5696,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B269" s="1">
         <v>10.0</v>
@@ -5372,7 +5707,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B270" s="1">
         <v>10.0</v>
@@ -5383,7 +5718,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B271" s="1">
         <v>10.0</v>
@@ -5394,7 +5729,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B272" s="1">
         <v>11.0</v>
@@ -5405,7 +5740,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B273" s="1">
         <v>11.0</v>
@@ -5416,7 +5751,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B274" s="1">
         <v>11.0</v>
@@ -5427,7 +5762,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B275" s="1">
         <v>11.0</v>
@@ -5438,7 +5773,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B276" s="1">
         <v>11.0</v>
@@ -5449,7 +5784,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B277" s="1">
         <v>11.0</v>
@@ -5460,7 +5795,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B278" s="1">
         <v>11.0</v>
@@ -5471,7 +5806,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B279" s="1">
         <v>11.0</v>
@@ -5482,7 +5817,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B280" s="1">
         <v>11.0</v>
@@ -5493,7 +5828,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B281" s="1">
         <v>11.0</v>
@@ -5504,7 +5839,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B282" s="1">
         <v>11.0</v>
@@ -5515,7 +5850,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B283" s="1">
         <v>11.0</v>
@@ -5526,7 +5861,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B284" s="1">
         <v>11.0</v>
@@ -5537,7 +5872,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B285" s="1">
         <v>11.0</v>
@@ -5548,7 +5883,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B286" s="1">
         <v>11.0</v>
@@ -5559,7 +5894,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B287" s="1">
         <v>11.0</v>
@@ -5570,7 +5905,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B288" s="1">
         <v>11.0</v>
@@ -5581,7 +5916,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B289" s="1">
         <v>11.0</v>
@@ -5592,7 +5927,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B290" s="1">
         <v>11.0</v>
@@ -5603,7 +5938,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B291" s="1">
         <v>11.0</v>
@@ -5614,7 +5949,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B292" s="1">
         <v>11.0</v>
@@ -5625,7 +5960,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B293" s="1">
         <v>11.0</v>
@@ -5636,7 +5971,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B294" s="1">
         <v>11.0</v>
@@ -5647,7 +5982,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B295" s="1">
         <v>11.0</v>
@@ -5658,7 +5993,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B296" s="1">
         <v>11.0</v>
@@ -5669,7 +6004,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B297" s="1">
         <v>11.0</v>
@@ -5680,7 +6015,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B298" s="1">
         <v>11.0</v>
@@ -5691,7 +6026,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B299" s="1">
         <v>12.0</v>
@@ -5702,7 +6037,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B300" s="1">
         <v>12.0</v>
@@ -5713,7 +6048,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B301" s="1">
         <v>12.0</v>
@@ -5724,7 +6059,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B302" s="1">
         <v>12.0</v>
@@ -5735,7 +6070,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B303" s="1">
         <v>12.0</v>
@@ -5746,7 +6081,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B304" s="1">
         <v>12.0</v>
@@ -5757,7 +6092,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B305" s="1">
         <v>12.0</v>
@@ -5768,7 +6103,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B306" s="1">
         <v>12.0</v>
@@ -5779,7 +6114,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B307" s="1">
         <v>12.0</v>
@@ -5790,7 +6125,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B308" s="1">
         <v>12.0</v>
@@ -5801,7 +6136,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B309" s="1">
         <v>12.0</v>
@@ -5812,7 +6147,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B310" s="1">
         <v>12.0</v>
@@ -5823,7 +6158,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B311" s="1">
         <v>12.0</v>
@@ -5834,7 +6169,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B312" s="1">
         <v>12.0</v>
@@ -5845,7 +6180,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B313" s="1">
         <v>12.0</v>
@@ -5856,7 +6191,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B314" s="1">
         <v>12.0</v>
@@ -5867,7 +6202,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B315" s="1">
         <v>12.0</v>
@@ -5878,7 +6213,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B316" s="1">
         <v>12.0</v>
@@ -5889,7 +6224,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B317" s="1">
         <v>12.0</v>
@@ -5900,7 +6235,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B318" s="1">
         <v>12.0</v>
@@ -5911,7 +6246,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B319" s="1">
         <v>12.0</v>
@@ -5922,7 +6257,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B320" s="1">
         <v>12.0</v>
@@ -5933,7 +6268,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B321" s="1">
         <v>12.0</v>
@@ -5944,7 +6279,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B322" s="1">
         <v>12.0</v>
@@ -5955,7 +6290,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B323" s="1">
         <v>12.0</v>
@@ -5966,7 +6301,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B324" s="1">
         <v>12.0</v>
@@ -5977,7 +6312,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B325" s="1">
         <v>12.0</v>
@@ -5988,7 +6323,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B326" s="1">
         <v>13.0</v>
@@ -5999,7 +6334,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B327" s="1">
         <v>13.0</v>
@@ -6010,7 +6345,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B328" s="1">
         <v>13.0</v>
@@ -6021,7 +6356,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B329" s="1">
         <v>13.0</v>
@@ -6032,7 +6367,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B330" s="1">
         <v>13.0</v>
@@ -6043,7 +6378,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B331" s="1">
         <v>13.0</v>
@@ -6054,7 +6389,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B332" s="1">
         <v>13.0</v>
@@ -6065,7 +6400,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B333" s="1">
         <v>13.0</v>
@@ -6076,7 +6411,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B334" s="1">
         <v>13.0</v>
@@ -6087,7 +6422,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B335" s="1">
         <v>13.0</v>
@@ -6098,7 +6433,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B336" s="1">
         <v>13.0</v>
@@ -6109,7 +6444,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B337" s="1">
         <v>13.0</v>
@@ -6120,7 +6455,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B338" s="1">
         <v>13.0</v>
@@ -6131,7 +6466,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B339" s="1">
         <v>13.0</v>
@@ -6142,7 +6477,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B340" s="1">
         <v>13.0</v>
@@ -6153,7 +6488,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B341" s="1">
         <v>13.0</v>
@@ -6164,7 +6499,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B342" s="1">
         <v>13.0</v>
@@ -6175,7 +6510,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B343" s="1">
         <v>13.0</v>
@@ -6186,7 +6521,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B344" s="1">
         <v>13.0</v>
@@ -6197,7 +6532,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B345" s="1">
         <v>13.0</v>
@@ -6208,7 +6543,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B346" s="1">
         <v>13.0</v>
@@ -6219,7 +6554,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B347" s="1">
         <v>13.0</v>
@@ -6230,7 +6565,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B348" s="1">
         <v>13.0</v>
@@ -6241,7 +6576,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B349" s="1">
         <v>13.0</v>
@@ -6252,7 +6587,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B350" s="1">
         <v>13.0</v>
@@ -6263,7 +6598,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B351" s="1">
         <v>13.0</v>
@@ -6274,7 +6609,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B352" s="1">
         <v>13.0</v>
@@ -6285,7 +6620,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B353" s="1">
         <v>14.0</v>
@@ -6296,7 +6631,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B354" s="1">
         <v>14.0</v>
@@ -6307,7 +6642,7 @@
     </row>
     <row r="355">
       <c r="A355" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B355" s="1">
         <v>14.0</v>
@@ -6318,7 +6653,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B356" s="1">
         <v>14.0</v>
@@ -6329,7 +6664,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B357" s="1">
         <v>14.0</v>
@@ -6340,7 +6675,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B358" s="1">
         <v>14.0</v>
@@ -6351,7 +6686,7 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B359" s="1">
         <v>14.0</v>
@@ -6362,7 +6697,7 @@
     </row>
     <row r="360">
       <c r="A360" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B360" s="1">
         <v>14.0</v>
@@ -6373,7 +6708,7 @@
     </row>
     <row r="361">
       <c r="A361" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B361" s="1">
         <v>14.0</v>
@@ -6384,7 +6719,7 @@
     </row>
     <row r="362">
       <c r="A362" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B362" s="1">
         <v>14.0</v>
@@ -6395,7 +6730,7 @@
     </row>
     <row r="363">
       <c r="A363" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B363" s="1">
         <v>14.0</v>
@@ -6406,7 +6741,7 @@
     </row>
     <row r="364">
       <c r="A364" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B364" s="1">
         <v>14.0</v>
@@ -6417,7 +6752,7 @@
     </row>
     <row r="365">
       <c r="A365" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B365" s="1">
         <v>14.0</v>
@@ -6428,7 +6763,7 @@
     </row>
     <row r="366">
       <c r="A366" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B366" s="1">
         <v>14.0</v>
@@ -6439,7 +6774,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B367" s="1">
         <v>14.0</v>
@@ -6450,7 +6785,7 @@
     </row>
     <row r="368">
       <c r="A368" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B368" s="1">
         <v>14.0</v>
@@ -6461,7 +6796,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B369" s="1">
         <v>14.0</v>
@@ -6472,7 +6807,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B370" s="1">
         <v>14.0</v>
@@ -6483,7 +6818,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B371" s="1">
         <v>14.0</v>
@@ -6494,7 +6829,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B372" s="1">
         <v>14.0</v>
@@ -6505,7 +6840,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B373" s="1">
         <v>14.0</v>
@@ -6516,7 +6851,7 @@
     </row>
     <row r="374">
       <c r="A374" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B374" s="1">
         <v>14.0</v>
@@ -6527,7 +6862,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B375" s="1">
         <v>14.0</v>
@@ -6538,7 +6873,7 @@
     </row>
     <row r="376">
       <c r="A376" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B376" s="1">
         <v>14.0</v>
@@ -6549,7 +6884,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B377" s="1">
         <v>14.0</v>
@@ -6560,7 +6895,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B378" s="1">
         <v>14.0</v>
@@ -6571,7 +6906,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B379" s="1">
         <v>14.0</v>
@@ -6582,7 +6917,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B380" s="1">
         <v>15.0</v>
@@ -6593,7 +6928,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B381" s="1">
         <v>15.0</v>
@@ -6604,7 +6939,7 @@
     </row>
     <row r="382">
       <c r="A382" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B382" s="1">
         <v>15.0</v>
@@ -6615,7 +6950,7 @@
     </row>
     <row r="383">
       <c r="A383" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B383" s="1">
         <v>15.0</v>
@@ -6626,7 +6961,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B384" s="1">
         <v>15.0</v>
@@ -6637,7 +6972,7 @@
     </row>
     <row r="385">
       <c r="A385" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B385" s="1">
         <v>15.0</v>
@@ -6648,7 +6983,7 @@
     </row>
     <row r="386">
       <c r="A386" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B386" s="1">
         <v>15.0</v>
@@ -6659,7 +6994,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B387" s="1">
         <v>15.0</v>
@@ -6670,7 +7005,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B388" s="1">
         <v>15.0</v>
@@ -6681,7 +7016,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B389" s="1">
         <v>15.0</v>
@@ -6692,7 +7027,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B390" s="1">
         <v>15.0</v>
@@ -6703,7 +7038,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B391" s="1">
         <v>15.0</v>
@@ -6714,7 +7049,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B392" s="1">
         <v>15.0</v>
@@ -6725,7 +7060,7 @@
     </row>
     <row r="393">
       <c r="A393" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B393" s="1">
         <v>15.0</v>
@@ -6736,7 +7071,7 @@
     </row>
     <row r="394">
       <c r="A394" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B394" s="1">
         <v>15.0</v>
@@ -6747,7 +7082,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B395" s="1">
         <v>15.0</v>
@@ -6758,7 +7093,7 @@
     </row>
     <row r="396">
       <c r="A396" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B396" s="1">
         <v>15.0</v>
@@ -6769,7 +7104,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B397" s="1">
         <v>15.0</v>
@@ -6780,7 +7115,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B398" s="1">
         <v>15.0</v>
@@ -6791,7 +7126,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B399" s="1">
         <v>15.0</v>
@@ -6802,7 +7137,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B400" s="1">
         <v>15.0</v>
@@ -6813,7 +7148,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B401" s="1">
         <v>15.0</v>
@@ -6824,7 +7159,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B402" s="1">
         <v>15.0</v>
@@ -6835,7 +7170,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B403" s="1">
         <v>15.0</v>
@@ -6846,7 +7181,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B404" s="1">
         <v>15.0</v>
@@ -6857,7 +7192,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B405" s="1">
         <v>15.0</v>
@@ -6868,7 +7203,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B406" s="1">
         <v>15.0</v>
@@ -6879,7 +7214,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B407" s="1">
         <v>16.0</v>
@@ -6890,7 +7225,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B408" s="1">
         <v>16.0</v>
@@ -6901,7 +7236,7 @@
     </row>
     <row r="409">
       <c r="A409" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B409" s="1">
         <v>16.0</v>
@@ -6912,7 +7247,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B410" s="1">
         <v>16.0</v>
@@ -6923,7 +7258,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B411" s="1">
         <v>16.0</v>
@@ -6934,7 +7269,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B412" s="1">
         <v>16.0</v>
@@ -6945,7 +7280,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B413" s="1">
         <v>16.0</v>
@@ -6956,7 +7291,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B414" s="1">
         <v>16.0</v>
@@ -6967,7 +7302,7 @@
     </row>
     <row r="415">
       <c r="A415" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B415" s="1">
         <v>16.0</v>
@@ -6978,7 +7313,7 @@
     </row>
     <row r="416">
       <c r="A416" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B416" s="1">
         <v>16.0</v>
@@ -6989,7 +7324,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B417" s="1">
         <v>16.0</v>
@@ -7000,7 +7335,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B418" s="1">
         <v>16.0</v>
@@ -7011,7 +7346,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B419" s="1">
         <v>16.0</v>
@@ -7022,7 +7357,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B420" s="1">
         <v>16.0</v>
@@ -7033,7 +7368,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B421" s="1">
         <v>16.0</v>
@@ -7044,7 +7379,7 @@
     </row>
     <row r="422">
       <c r="A422" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B422" s="1">
         <v>16.0</v>
@@ -7055,7 +7390,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B423" s="1">
         <v>16.0</v>
@@ -7066,7 +7401,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B424" s="1">
         <v>16.0</v>
@@ -7077,7 +7412,7 @@
     </row>
     <row r="425">
       <c r="A425" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B425" s="1">
         <v>16.0</v>
@@ -7088,7 +7423,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B426" s="1">
         <v>16.0</v>
@@ -7099,7 +7434,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B427" s="1">
         <v>16.0</v>
@@ -7110,7 +7445,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B428" s="1">
         <v>16.0</v>
@@ -7121,7 +7456,7 @@
     </row>
     <row r="429">
       <c r="A429" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B429" s="1">
         <v>16.0</v>
@@ -7132,7 +7467,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B430" s="1">
         <v>16.0</v>
@@ -7143,7 +7478,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B431" s="1">
         <v>16.0</v>
@@ -7154,7 +7489,7 @@
     </row>
     <row r="432">
       <c r="A432" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B432" s="1">
         <v>16.0</v>
@@ -7165,7 +7500,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B433" s="1">
         <v>16.0</v>
@@ -7176,7 +7511,7 @@
     </row>
     <row r="434">
       <c r="A434" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B434" s="1">
         <v>17.0</v>
@@ -7187,7 +7522,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B435" s="1">
         <v>17.0</v>
@@ -7198,7 +7533,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B436" s="1">
         <v>17.0</v>
@@ -7209,7 +7544,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B437" s="1">
         <v>17.0</v>
@@ -7220,7 +7555,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B438" s="1">
         <v>17.0</v>
@@ -7231,7 +7566,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B439" s="1">
         <v>17.0</v>
@@ -7242,7 +7577,7 @@
     </row>
     <row r="440">
       <c r="A440" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B440" s="1">
         <v>17.0</v>
@@ -7253,7 +7588,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B441" s="1">
         <v>17.0</v>
@@ -7264,7 +7599,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B442" s="1">
         <v>17.0</v>
@@ -7275,7 +7610,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B443" s="1">
         <v>17.0</v>
@@ -7286,7 +7621,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B444" s="1">
         <v>17.0</v>
@@ -7297,7 +7632,7 @@
     </row>
     <row r="445">
       <c r="A445" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B445" s="1">
         <v>17.0</v>
@@ -7308,7 +7643,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B446" s="1">
         <v>17.0</v>
@@ -7319,7 +7654,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B447" s="1">
         <v>17.0</v>
@@ -7330,7 +7665,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B448" s="1">
         <v>17.0</v>
@@ -7341,7 +7676,7 @@
     </row>
     <row r="449">
       <c r="A449" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B449" s="1">
         <v>17.0</v>
@@ -7352,7 +7687,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B450" s="1">
         <v>17.0</v>
@@ -7363,7 +7698,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B451" s="1">
         <v>17.0</v>
@@ -7374,7 +7709,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B452" s="1">
         <v>17.0</v>
@@ -7385,7 +7720,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B453" s="1">
         <v>17.0</v>
@@ -7396,7 +7731,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B454" s="1">
         <v>17.0</v>
@@ -7407,7 +7742,7 @@
     </row>
     <row r="455">
       <c r="A455" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B455" s="1">
         <v>17.0</v>
@@ -7418,7 +7753,7 @@
     </row>
     <row r="456">
       <c r="A456" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B456" s="1">
         <v>17.0</v>
@@ -7429,7 +7764,7 @@
     </row>
     <row r="457">
       <c r="A457" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B457" s="1">
         <v>17.0</v>
@@ -7440,7 +7775,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B458" s="1">
         <v>17.0</v>
@@ -7451,7 +7786,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B459" s="1">
         <v>17.0</v>
@@ -7462,7 +7797,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B460" s="1">
         <v>17.0</v>
@@ -7473,7 +7808,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B461" s="1">
         <v>18.0</v>
@@ -7484,7 +7819,7 @@
     </row>
     <row r="462">
       <c r="A462" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B462" s="1">
         <v>18.0</v>
@@ -7495,7 +7830,7 @@
     </row>
     <row r="463">
       <c r="A463" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B463" s="1">
         <v>18.0</v>
@@ -7506,7 +7841,7 @@
     </row>
     <row r="464">
       <c r="A464" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B464" s="1">
         <v>18.0</v>
@@ -7517,7 +7852,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B465" s="1">
         <v>18.0</v>
@@ -7528,7 +7863,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B466" s="1">
         <v>18.0</v>
@@ -7539,7 +7874,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B467" s="1">
         <v>18.0</v>
@@ -7550,7 +7885,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B468" s="1">
         <v>18.0</v>
@@ -7561,7 +7896,7 @@
     </row>
     <row r="469">
       <c r="A469" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B469" s="1">
         <v>18.0</v>
@@ -7572,7 +7907,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B470" s="1">
         <v>18.0</v>
@@ -7583,7 +7918,7 @@
     </row>
     <row r="471">
       <c r="A471" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B471" s="1">
         <v>18.0</v>
@@ -7594,7 +7929,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B472" s="1">
         <v>18.0</v>
@@ -7605,7 +7940,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B473" s="1">
         <v>18.0</v>
@@ -7616,7 +7951,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B474" s="1">
         <v>18.0</v>
@@ -7627,7 +7962,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B475" s="1">
         <v>18.0</v>
@@ -7638,7 +7973,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B476" s="1">
         <v>18.0</v>
@@ -7649,7 +7984,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B477" s="1">
         <v>18.0</v>
@@ -7660,7 +7995,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B478" s="1">
         <v>18.0</v>
@@ -7671,7 +8006,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B479" s="1">
         <v>18.0</v>
@@ -7682,7 +8017,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B480" s="1">
         <v>18.0</v>
@@ -7693,7 +8028,7 @@
     </row>
     <row r="481">
       <c r="A481" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B481" s="1">
         <v>18.0</v>
@@ -7704,7 +8039,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B482" s="1">
         <v>18.0</v>
@@ -7715,7 +8050,7 @@
     </row>
     <row r="483">
       <c r="A483" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B483" s="1">
         <v>18.0</v>
@@ -7726,7 +8061,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B484" s="1">
         <v>18.0</v>
@@ -7737,7 +8072,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B485" s="1">
         <v>18.0</v>
@@ -7748,7 +8083,7 @@
     </row>
     <row r="486">
       <c r="A486" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B486" s="1">
         <v>18.0</v>
@@ -7759,7 +8094,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B487" s="1">
         <v>18.0</v>
@@ -7770,7 +8105,7 @@
     </row>
     <row r="488">
       <c r="A488" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B488" s="1">
         <v>19.0</v>
@@ -7781,7 +8116,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B489" s="1">
         <v>19.0</v>
@@ -7792,7 +8127,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B490" s="1">
         <v>19.0</v>
@@ -7803,7 +8138,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B491" s="1">
         <v>19.0</v>
@@ -7814,7 +8149,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B492" s="1">
         <v>19.0</v>
@@ -7825,7 +8160,7 @@
     </row>
     <row r="493">
       <c r="A493" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B493" s="1">
         <v>19.0</v>
@@ -7836,7 +8171,7 @@
     </row>
     <row r="494">
       <c r="A494" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B494" s="1">
         <v>19.0</v>
@@ -7847,7 +8182,7 @@
     </row>
     <row r="495">
       <c r="A495" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B495" s="1">
         <v>19.0</v>
@@ -7858,7 +8193,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B496" s="1">
         <v>19.0</v>
@@ -7869,7 +8204,7 @@
     </row>
     <row r="497">
       <c r="A497" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B497" s="1">
         <v>19.0</v>
@@ -7880,7 +8215,7 @@
     </row>
     <row r="498">
       <c r="A498" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B498" s="1">
         <v>19.0</v>
@@ -7891,7 +8226,7 @@
     </row>
     <row r="499">
       <c r="A499" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B499" s="1">
         <v>19.0</v>
@@ -7902,7 +8237,7 @@
     </row>
     <row r="500">
       <c r="A500" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B500" s="1">
         <v>19.0</v>
@@ -7913,7 +8248,7 @@
     </row>
     <row r="501">
       <c r="A501" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B501" s="1">
         <v>19.0</v>
@@ -7924,7 +8259,7 @@
     </row>
     <row r="502">
       <c r="A502" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B502" s="1">
         <v>19.0</v>
@@ -7935,7 +8270,7 @@
     </row>
     <row r="503">
       <c r="A503" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B503" s="1">
         <v>19.0</v>
@@ -7946,7 +8281,7 @@
     </row>
     <row r="504">
       <c r="A504" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B504" s="1">
         <v>19.0</v>
@@ -7957,7 +8292,7 @@
     </row>
     <row r="505">
       <c r="A505" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B505" s="1">
         <v>19.0</v>
@@ -7968,7 +8303,7 @@
     </row>
     <row r="506">
       <c r="A506" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B506" s="1">
         <v>19.0</v>
@@ -7979,7 +8314,7 @@
     </row>
     <row r="507">
       <c r="A507" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B507" s="1">
         <v>19.0</v>
@@ -7990,7 +8325,7 @@
     </row>
     <row r="508">
       <c r="A508" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B508" s="1">
         <v>19.0</v>
@@ -8001,7 +8336,7 @@
     </row>
     <row r="509">
       <c r="A509" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B509" s="1">
         <v>19.0</v>
@@ -8012,7 +8347,7 @@
     </row>
     <row r="510">
       <c r="A510" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B510" s="1">
         <v>19.0</v>
@@ -8023,7 +8358,7 @@
     </row>
     <row r="511">
       <c r="A511" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B511" s="1">
         <v>19.0</v>
@@ -8034,7 +8369,7 @@
     </row>
     <row r="512">
       <c r="A512" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B512" s="1">
         <v>19.0</v>
@@ -8045,7 +8380,7 @@
     </row>
     <row r="513">
       <c r="A513" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B513" s="1">
         <v>19.0</v>
@@ -8056,13 +8391,607 @@
     </row>
     <row r="514">
       <c r="A514" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B514" s="1">
         <v>19.0</v>
       </c>
       <c r="C514" s="1">
         <v>3.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B515" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C515" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B516" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C516" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B517" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C517" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B518" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C518" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B519" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C519" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B520" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C520" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B521" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C521" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B522" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C522" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B523" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C523" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B524" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C524" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B525" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C525" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B526" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C526" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B527" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C527" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B528" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C528" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B529" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C529" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B530" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C530" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B531" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C531" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B532" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C532" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B533" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C533" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B534" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C534" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B535" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C535" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B536" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C536" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B537" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C537" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B538" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C538" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B539" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C539" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B540" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C540" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B541" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="C541" s="1">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B542" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C542" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B543" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C543" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B544" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C544" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B545" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C545" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B546" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C546" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B547" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C547" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B548" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C548" s="1">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B549" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C549" s="1">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B550" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C550" s="1">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B551" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C551" s="1">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B552" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C552" s="1">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B553" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C553" s="1">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B554" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C554" s="1">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B555" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C555" s="1">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B556" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C556" s="1">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B557" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C557" s="1">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B558" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C558" s="1">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B559" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C559" s="1">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B560" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C560" s="1">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B561" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C561" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B562" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C562" s="1">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B563" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C563" s="1">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B564" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C564" s="1">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B565" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C565" s="1">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B566" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C566" s="1">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B567" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C567" s="1">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B568" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="C568" s="1">
+        <v>27.0</v>
       </c>
     </row>
   </sheetData>
@@ -8082,10 +9011,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
@@ -8093,7 +9022,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
@@ -8101,7 +9030,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -8109,7 +9038,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -8117,7 +9046,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -8125,7 +9054,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7">
@@ -8133,7 +9062,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -8141,7 +9070,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -8149,7 +9078,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -8157,7 +9086,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
@@ -8165,7 +9094,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
@@ -8173,7 +9102,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -8181,7 +9110,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
@@ -8189,7 +9118,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15">
@@ -8197,7 +9126,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -8205,7 +9134,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -8213,7 +9142,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8236,12 +9165,12 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -8249,7 +9178,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -8257,7 +9186,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -8265,7 +9194,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -8273,7 +9202,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1">
         <v>1.0</v>
@@ -8281,7 +9210,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
         <v>1.0</v>
@@ -8289,7 +9218,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>1.0</v>
@@ -8297,7 +9226,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -8305,7 +9234,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B10" s="1">
         <v>1.0</v>
@@ -8313,7 +9242,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1">
         <v>1.0</v>
@@ -8321,7 +9250,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
@@ -8329,7 +9258,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -8337,7 +9266,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>1.0</v>
@@ -8345,7 +9274,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -8353,7 +9282,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -8361,7 +9290,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -8369,7 +9298,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
         <v>2.0</v>
@@ -8377,7 +9306,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -8385,7 +9314,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>2.0</v>
@@ -8393,7 +9322,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -8401,7 +9330,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -8409,7 +9338,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -8417,7 +9346,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -8425,7 +9354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -8433,7 +9362,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B26" s="1">
         <v>2.0</v>
@@ -8441,7 +9370,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>2.0</v>
@@ -8449,7 +9378,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <v>2.0</v>
@@ -8457,7 +9386,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1">
         <v>2.0</v>
@@ -8465,7 +9394,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>3.0</v>
@@ -8473,7 +9402,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1">
         <v>3.0</v>
@@ -8481,7 +9410,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32" s="1">
         <v>3.0</v>
@@ -8489,7 +9418,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1">
         <v>3.0</v>
@@ -8497,7 +9426,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1">
         <v>3.0</v>
@@ -8505,7 +9434,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>3.0</v>
@@ -8513,7 +9442,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -8521,7 +9450,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
         <v>3.0</v>
@@ -8529,7 +9458,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <v>3.0</v>
@@ -8537,7 +9466,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>3.0</v>
@@ -8545,7 +9474,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1">
         <v>3.0</v>
@@ -8553,7 +9482,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1">
         <v>3.0</v>
@@ -8561,7 +9490,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1">
         <v>3.0</v>
@@ -8569,7 +9498,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1">
         <v>3.0</v>
@@ -8577,7 +9506,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1">
         <v>4.0</v>
@@ -8585,7 +9514,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45" s="1">
         <v>4.0</v>
@@ -8593,7 +9522,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
         <v>4.0</v>
@@ -8601,7 +9530,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -8609,7 +9538,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1">
         <v>4.0</v>
@@ -8617,7 +9546,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1">
         <v>4.0</v>
@@ -8625,7 +9554,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
         <v>4.0</v>
@@ -8633,7 +9562,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>4.0</v>
@@ -8641,7 +9570,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1">
         <v>4.0</v>
@@ -8649,7 +9578,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
         <v>4.0</v>
@@ -8657,7 +9586,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
         <v>4.0</v>
@@ -8665,7 +9594,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="B55" s="1">
         <v>4.0</v>
@@ -8673,7 +9602,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1">
         <v>4.0</v>
@@ -8681,7 +9610,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1">
         <v>4.0</v>
@@ -8689,7 +9618,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B58" s="1">
         <v>5.0</v>
@@ -8697,7 +9626,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1">
         <v>5.0</v>
@@ -8705,7 +9634,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B60" s="1">
         <v>5.0</v>
@@ -8713,7 +9642,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B61" s="1">
         <v>5.0</v>
@@ -8721,7 +9650,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1">
         <v>5.0</v>
@@ -8729,7 +9658,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B63" s="1">
         <v>5.0</v>
@@ -8737,7 +9666,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>5.0</v>
@@ -8745,7 +9674,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>5.0</v>
@@ -8753,7 +9682,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1">
         <v>5.0</v>
@@ -8761,7 +9690,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B67" s="1">
         <v>5.0</v>
@@ -8769,7 +9698,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B68" s="1">
         <v>5.0</v>
@@ -8777,7 +9706,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1">
         <v>5.0</v>
@@ -8785,7 +9714,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B70" s="1">
         <v>5.0</v>
@@ -8793,7 +9722,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B71" s="1">
         <v>6.0</v>
@@ -8801,7 +9730,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B72" s="1">
         <v>6.0</v>
@@ -8809,7 +9738,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B73" s="1">
         <v>6.0</v>
@@ -8817,7 +9746,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B74" s="1">
         <v>6.0</v>
@@ -8825,7 +9754,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B75" s="1">
         <v>6.0</v>
@@ -8833,7 +9762,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1">
         <v>6.0</v>
@@ -8841,7 +9770,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B77" s="1">
         <v>6.0</v>
@@ -8849,7 +9778,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1">
         <v>6.0</v>
@@ -8857,7 +9786,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B79" s="1">
         <v>6.0</v>
@@ -8865,7 +9794,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B80" s="1">
         <v>6.0</v>
@@ -8873,7 +9802,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B81" s="1">
         <v>6.0</v>
@@ -8881,7 +9810,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B82" s="1">
         <v>6.0</v>
@@ -8889,7 +9818,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1">
         <v>6.0</v>
@@ -8897,7 +9826,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1">
         <v>7.0</v>
@@ -8905,7 +9834,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B85" s="1">
         <v>7.0</v>
@@ -8913,7 +9842,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B86" s="1">
         <v>7.0</v>
@@ -8921,7 +9850,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B87" s="1">
         <v>7.0</v>
@@ -8929,7 +9858,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B88" s="1">
         <v>7.0</v>
@@ -8937,7 +9866,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B89" s="1">
         <v>7.0</v>
@@ -8945,7 +9874,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B90" s="1">
         <v>7.0</v>
@@ -8953,7 +9882,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B91" s="1">
         <v>7.0</v>
@@ -8961,7 +9890,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B92" s="1">
         <v>7.0</v>
@@ -8969,7 +9898,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B93" s="1">
         <v>7.0</v>
@@ -8977,7 +9906,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B94" s="1">
         <v>7.0</v>
@@ -8985,7 +9914,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B95" s="1">
         <v>7.0</v>
@@ -8993,7 +9922,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B96" s="1">
         <v>7.0</v>
@@ -9001,7 +9930,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B97" s="1">
         <v>8.0</v>
@@ -9009,7 +9938,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B98" s="1">
         <v>8.0</v>
@@ -9017,7 +9946,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B99" s="1">
         <v>8.0</v>
@@ -9025,7 +9954,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B100" s="1">
         <v>8.0</v>
@@ -9033,7 +9962,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B101" s="1">
         <v>8.0</v>
@@ -9041,7 +9970,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B102" s="1">
         <v>8.0</v>
@@ -9049,7 +9978,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B103" s="1">
         <v>8.0</v>
@@ -9057,7 +9986,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B104" s="1">
         <v>8.0</v>
@@ -9065,7 +9994,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B105" s="1">
         <v>8.0</v>
@@ -9073,7 +10002,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B106" s="1">
         <v>8.0</v>
@@ -9081,7 +10010,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B107" s="1">
         <v>8.0</v>
@@ -9089,7 +10018,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B108" s="1">
         <v>8.0</v>
@@ -9097,7 +10026,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B109" s="1">
         <v>8.0</v>
@@ -9105,7 +10034,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1">
         <v>9.0</v>
@@ -9113,7 +10042,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B111" s="1">
         <v>9.0</v>
@@ -9121,7 +10050,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B112" s="1">
         <v>9.0</v>
@@ -9129,7 +10058,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B113" s="1">
         <v>9.0</v>
@@ -9137,7 +10066,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B114" s="1">
         <v>9.0</v>
@@ -9145,7 +10074,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B115" s="1">
         <v>9.0</v>
@@ -9153,7 +10082,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B116" s="1">
         <v>9.0</v>
@@ -9161,7 +10090,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B117" s="1">
         <v>9.0</v>
@@ -9169,7 +10098,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B118" s="1">
         <v>9.0</v>
@@ -9177,7 +10106,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B119" s="1">
         <v>9.0</v>
@@ -9185,7 +10114,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B120" s="1">
         <v>9.0</v>
@@ -9193,7 +10122,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B121" s="1">
         <v>9.0</v>
@@ -9201,7 +10130,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B122" s="1">
         <v>9.0</v>
@@ -9209,7 +10138,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B123" s="1">
         <v>10.0</v>
@@ -9217,7 +10146,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B124" s="1">
         <v>10.0</v>
@@ -9225,7 +10154,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B125" s="1">
         <v>10.0</v>
@@ -9233,7 +10162,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B126" s="1">
         <v>10.0</v>
@@ -9241,7 +10170,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B127" s="1">
         <v>10.0</v>
@@ -9249,7 +10178,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B128" s="1">
         <v>10.0</v>
@@ -9257,7 +10186,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B129" s="1">
         <v>10.0</v>
@@ -9265,7 +10194,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B130" s="1">
         <v>10.0</v>
@@ -9273,7 +10202,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B131" s="1">
         <v>10.0</v>
@@ -9281,7 +10210,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B132" s="1">
         <v>10.0</v>
@@ -9289,7 +10218,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B133" s="1">
         <v>10.0</v>
@@ -9297,7 +10226,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B134" s="1">
         <v>10.0</v>
@@ -9305,7 +10234,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B135" s="1">
         <v>10.0</v>
@@ -9313,7 +10242,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B136" s="1">
         <v>11.0</v>
@@ -9321,7 +10250,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B137" s="1">
         <v>11.0</v>
@@ -9329,7 +10258,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B138" s="1">
         <v>11.0</v>
@@ -9337,7 +10266,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B139" s="1">
         <v>11.0</v>
@@ -9345,7 +10274,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B140" s="1">
         <v>11.0</v>
@@ -9353,7 +10282,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B141" s="1">
         <v>11.0</v>
@@ -9361,7 +10290,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B142" s="1">
         <v>11.0</v>
@@ -9369,7 +10298,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B143" s="1">
         <v>11.0</v>
@@ -9377,7 +10306,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B144" s="1">
         <v>11.0</v>
@@ -9385,7 +10314,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B145" s="1">
         <v>11.0</v>
@@ -9393,7 +10322,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B146" s="1">
         <v>11.0</v>
@@ -9401,7 +10330,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B147" s="1">
         <v>11.0</v>
@@ -9409,7 +10338,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B148" s="1">
         <v>11.0</v>
@@ -9417,7 +10346,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B149" s="1">
         <v>12.0</v>
@@ -9425,7 +10354,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B150" s="1">
         <v>12.0</v>
@@ -9433,7 +10362,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B151" s="1">
         <v>12.0</v>
@@ -9441,7 +10370,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B152" s="1">
         <v>12.0</v>
@@ -9449,7 +10378,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B153" s="1">
         <v>12.0</v>
@@ -9457,7 +10386,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B154" s="1">
         <v>12.0</v>
@@ -9465,7 +10394,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B155" s="1">
         <v>12.0</v>
@@ -9473,7 +10402,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B156" s="1">
         <v>12.0</v>
@@ -9481,7 +10410,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B157" s="1">
         <v>12.0</v>
@@ -9489,7 +10418,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B158" s="1">
         <v>12.0</v>
@@ -9497,7 +10426,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B159" s="1">
         <v>12.0</v>
@@ -9505,7 +10434,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B160" s="1">
         <v>12.0</v>
@@ -9513,7 +10442,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B161" s="1">
         <v>12.0</v>
@@ -9521,7 +10450,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1">
         <v>13.0</v>
@@ -9529,7 +10458,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B163" s="1">
         <v>13.0</v>
@@ -9537,7 +10466,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B164" s="1">
         <v>13.0</v>
@@ -9545,7 +10474,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B165" s="1">
         <v>13.0</v>
@@ -9553,7 +10482,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B166" s="1">
         <v>13.0</v>
@@ -9561,7 +10490,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B167" s="1">
         <v>13.0</v>
@@ -9569,7 +10498,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B168" s="1">
         <v>13.0</v>
@@ -9577,7 +10506,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B169" s="1">
         <v>13.0</v>
@@ -9585,7 +10514,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B170" s="1">
         <v>13.0</v>
@@ -9593,7 +10522,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B171" s="1">
         <v>13.0</v>
@@ -9601,7 +10530,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B172" s="1">
         <v>13.0</v>
@@ -9609,7 +10538,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B173" s="1">
         <v>13.0</v>
@@ -9617,7 +10546,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B174" s="1">
         <v>13.0</v>
@@ -9625,7 +10554,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B175" s="1">
         <v>14.0</v>
@@ -9633,7 +10562,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B176" s="1">
         <v>14.0</v>
@@ -9641,7 +10570,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B177" s="1">
         <v>14.0</v>
@@ -9649,7 +10578,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B178" s="1">
         <v>14.0</v>
@@ -9657,7 +10586,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B179" s="1">
         <v>14.0</v>
@@ -9665,7 +10594,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B180" s="1">
         <v>14.0</v>
@@ -9673,7 +10602,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B181" s="1">
         <v>14.0</v>
@@ -9681,7 +10610,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B182" s="1">
         <v>14.0</v>
@@ -9689,7 +10618,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B183" s="1">
         <v>14.0</v>
@@ -9697,7 +10626,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B184" s="1">
         <v>14.0</v>
@@ -9705,7 +10634,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B185" s="1">
         <v>14.0</v>
@@ -9713,7 +10642,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B186" s="1">
         <v>14.0</v>
@@ -9721,7 +10650,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B187" s="1">
         <v>14.0</v>
@@ -9729,7 +10658,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B188" s="1">
         <v>15.0</v>
@@ -9737,7 +10666,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B189" s="1">
         <v>15.0</v>
@@ -9745,7 +10674,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B190" s="1">
         <v>15.0</v>
@@ -9753,7 +10682,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B191" s="1">
         <v>15.0</v>
@@ -9761,7 +10690,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B192" s="1">
         <v>15.0</v>
@@ -9769,7 +10698,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B193" s="1">
         <v>15.0</v>
@@ -9777,7 +10706,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B194" s="1">
         <v>15.0</v>
@@ -9785,7 +10714,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B195" s="1">
         <v>15.0</v>
@@ -9793,7 +10722,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B196" s="1">
         <v>15.0</v>
@@ -9801,7 +10730,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B197" s="1">
         <v>15.0</v>
@@ -9809,7 +10738,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B198" s="1">
         <v>15.0</v>
@@ -9817,7 +10746,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B199" s="1">
         <v>15.0</v>
@@ -9825,7 +10754,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B200" s="1">
         <v>15.0</v>
@@ -9833,7 +10762,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B201" s="1">
         <v>16.0</v>
@@ -9841,7 +10770,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B202" s="1">
         <v>16.0</v>
@@ -9849,7 +10778,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B203" s="1">
         <v>16.0</v>
@@ -9857,7 +10786,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B204" s="1">
         <v>16.0</v>
@@ -9865,7 +10794,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B205" s="1">
         <v>16.0</v>
@@ -9873,7 +10802,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B206" s="1">
         <v>16.0</v>
@@ -9881,7 +10810,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B207" s="1">
         <v>16.0</v>
@@ -9889,7 +10818,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B208" s="1">
         <v>16.0</v>
@@ -9897,7 +10826,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B209" s="1">
         <v>16.0</v>
@@ -9905,7 +10834,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B210" s="1">
         <v>16.0</v>
@@ -9913,7 +10842,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B211" s="1">
         <v>16.0</v>
@@ -9921,7 +10850,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B212" s="1">
         <v>16.0</v>
@@ -9929,7 +10858,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B213" s="1">
         <v>16.0</v>
